--- a/completer-poc/parancsok/parancsok.xlsx
+++ b/completer-poc/parancsok/parancsok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/completer-poc/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458A515-07F2-5B49-8DFE-2DED8FC9E3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893B4C9-E18C-5046-AFDF-C31A653D810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$457</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$96</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>kész</t>
+  </si>
+  <si>
+    <t>Kész?</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
-  <dimension ref="A1:E457"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" zoomScale="188" workbookViewId="0">
-      <selection activeCell="E451" sqref="E451"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1389,7 +1395,7 @@
     <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>314</v>
       </c>
@@ -1405,8 +1411,11 @@
       <c r="E1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>ACCept -&gt; Date</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT(A3," -&gt; ",B3)</f>
+        <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT(A3," -&gt; ",B3)</f>
         <v>ACTivate -&gt; POlicyset</v>
       </c>
       <c r="D3" t="str">
@@ -1437,7 +1446,7 @@
         <v>ACTivate -&gt; POlicyset</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT(A4," -&gt; ",B4)</f>
+        <f t="shared" si="0"/>
         <v>ASsign -&gt; DEFMGmtclass</v>
       </c>
       <c r="D4" t="str">
@@ -1453,7 +1462,7 @@
         <v>ASsign -&gt; DEFMGmtclass</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT(A5," -&gt; ",B5)</f>
+        <f t="shared" si="0"/>
         <v>BAckup -&gt; DB</v>
       </c>
       <c r="D5" t="str">
@@ -1469,7 +1478,7 @@
         <v>BAckup -&gt; DB</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT(A6," -&gt; ",B6)</f>
+        <f t="shared" si="0"/>
         <v>BAckup -&gt; DEVCONFig</v>
       </c>
       <c r="D6" t="str">
@@ -1485,7 +1494,7 @@
         <v>BAckup -&gt; DEVCONFig</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT(A7," -&gt; ",B7)</f>
+        <f t="shared" si="0"/>
         <v>BAckup -&gt; STGpool</v>
       </c>
       <c r="D7" t="str">
@@ -1501,7 +1510,7 @@
         <v>BAckup -&gt; STGpool</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>48</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT(A8," -&gt; ",B8)</f>
+        <f t="shared" si="0"/>
         <v>BAckup -&gt; VOLHistory</v>
       </c>
       <c r="D8" t="str">
@@ -1517,7 +1526,7 @@
         <v>BAckup -&gt; VOLHistory</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT(A9," -&gt; ",B9)</f>
+        <f t="shared" si="0"/>
         <v>CHECKIn -&gt; LIBVolume</v>
       </c>
       <c r="D9" t="str">
@@ -1533,7 +1542,7 @@
         <v>CHECKIn -&gt; LIBVolume</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT(A10," -&gt; ",B10)</f>
+        <f t="shared" si="0"/>
         <v>DECommission -&gt; Node</v>
       </c>
       <c r="D10" t="str">
@@ -1549,7 +1558,7 @@
         <v>DECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT(A11," -&gt; ",B11)</f>
+        <f t="shared" si="0"/>
         <v>DECommission -&gt; VM</v>
       </c>
       <c r="D11" t="str">
@@ -1565,7 +1574,7 @@
         <v>DECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT(A12," -&gt; ",B12)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; ASSOCiation</v>
       </c>
       <c r="D12" t="str">
@@ -1581,7 +1590,7 @@
         <v>DEFine -&gt; ASSOCiation</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT(A13," -&gt; ",B13)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; DEVclass</v>
       </c>
       <c r="D13" t="str">
@@ -1597,7 +1606,7 @@
         <v>DEFine -&gt; DEVclass</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT(A14," -&gt; ",B14)</f>
+        <f t="shared" si="0"/>
         <v>DELete -&gt; STGpool</v>
       </c>
       <c r="D14" t="str">
@@ -1613,7 +1622,7 @@
         <v>DELete -&gt; STGpool</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>159</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT(A15," -&gt; ",B15)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; ACtlog</v>
       </c>
       <c r="D15" t="str">
@@ -1629,7 +1638,7 @@
         <v>Query -&gt; ACtlog</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>109</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT(A16," -&gt; ",B16)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; FIlespace</v>
       </c>
       <c r="D16" t="str">
@@ -1653,7 +1662,7 @@
         <v>178</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT(A17," -&gt; ",B17)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; LOG</v>
       </c>
       <c r="D17" t="str">
@@ -1669,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT(A18," -&gt; ",B18)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; Node</v>
       </c>
       <c r="D18" t="str">
@@ -1685,7 +1694,7 @@
         <v>185</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT(A19," -&gt; ",B19)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; OPTion</v>
       </c>
       <c r="D19" t="str">
@@ -1701,7 +1710,7 @@
         <v>94</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT(A20," -&gt; ",B20)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; PATH</v>
       </c>
       <c r="D20" t="str">
@@ -1717,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT(A21," -&gt; ",B21)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; PRocess</v>
       </c>
       <c r="D21" t="str">
@@ -1733,7 +1742,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT(A22," -&gt; ",B22)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; SEssion</v>
       </c>
       <c r="D22" t="str">
@@ -1749,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT(A23," -&gt; ",B23)</f>
+        <f t="shared" si="0"/>
         <v>Query -&gt; STGpool</v>
       </c>
       <c r="D23" t="str">
@@ -1765,7 +1774,7 @@
         <v>47</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT(A24," -&gt; ",B24)</f>
+        <f t="shared" si="0"/>
         <v>RECommission -&gt; Node</v>
       </c>
       <c r="D24" t="str">
@@ -1781,7 +1790,7 @@
         <v>74</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT(A25," -&gt; ",B25)</f>
+        <f t="shared" si="0"/>
         <v>RECommission -&gt; VM</v>
       </c>
       <c r="D25" t="str">
@@ -1797,7 +1806,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT(A26," -&gt; ",B26)</f>
+        <f t="shared" si="0"/>
         <v>REMove -&gt; Node</v>
       </c>
       <c r="D26" t="str">
@@ -1813,7 +1822,7 @@
         <v>221</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT(A27," -&gt; ",B27)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ACCounting</v>
       </c>
       <c r="D27" t="str">
@@ -1829,7 +1838,7 @@
         <v>222</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT(A28," -&gt; ",B28)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ACTlogretention</v>
       </c>
       <c r="D28" t="str">
@@ -1845,7 +1854,7 @@
         <v>223</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT(A29," -&gt; ",B29)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ALERTACtiveduration</v>
       </c>
       <c r="D29" t="str">
@@ -1861,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT(A30," -&gt; ",B30)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ALERTCLosedduration</v>
       </c>
       <c r="D30" t="str">
@@ -1877,7 +1886,7 @@
         <v>225</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT(A31," -&gt; ",B31)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ALERTEMail</v>
       </c>
       <c r="D31" t="str">
@@ -1893,7 +1902,7 @@
         <v>226</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT(A32," -&gt; ",B32)</f>
+        <f t="shared" si="0"/>
         <v>Set -&gt; ALERTEMAILFRomaddr</v>
       </c>
       <c r="D32" t="str">
@@ -1909,7 +1918,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT(A33," -&gt; ",B33)</f>
+        <f t="shared" si="0"/>
         <v>APPRove -&gt; PEndingcmd</v>
       </c>
       <c r="D33" t="e">
@@ -1925,7 +1934,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT(A34," -&gt; ",B34)</f>
+        <f t="shared" si="0"/>
         <v>AUDit -&gt; CONTainer</v>
       </c>
       <c r="D34" t="e">
@@ -1944,7 +1953,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT(A35," -&gt; ",B35)</f>
+        <f t="shared" si="0"/>
         <v>AUDIT -&gt; LDAPdirectory</v>
       </c>
       <c r="D35" t="e">
@@ -1963,7 +1972,7 @@
         <v>41</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT(A36," -&gt; ",B36)</f>
+        <f t="shared" si="0"/>
         <v>AUDIT -&gt; LIBRary</v>
       </c>
       <c r="D36" t="e">
@@ -1982,7 +1991,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT(A37," -&gt; ",B37)</f>
+        <f t="shared" si="0"/>
         <v>AUDit -&gt; LIBVolume</v>
       </c>
       <c r="D37" t="e">
@@ -2001,7 +2010,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT(A38," -&gt; ",B38)</f>
+        <f t="shared" si="0"/>
         <v>AUDit -&gt; LICenses</v>
       </c>
       <c r="D38" t="e">
@@ -2020,7 +2029,7 @@
         <v>44</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT(A39," -&gt; ",B39)</f>
+        <f t="shared" si="0"/>
         <v>AUDit -&gt; Volume</v>
       </c>
       <c r="D39" t="e">
@@ -2039,7 +2048,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="str">
-        <f>_xlfn.CONCAT(A40," -&gt; ",B40)</f>
+        <f t="shared" si="0"/>
         <v>BAckup -&gt; Node</v>
       </c>
       <c r="D40" t="e">
@@ -2055,7 +2064,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="str">
-        <f>_xlfn.CONCAT(A41," -&gt; ",B41)</f>
+        <f t="shared" si="0"/>
         <v>BEGin -&gt; EVentlogging</v>
       </c>
       <c r="D41" t="e">
@@ -2071,7 +2080,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT(A42," -&gt; ",B42)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; EXPIration</v>
       </c>
       <c r="D42" t="e">
@@ -2090,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT(A43," -&gt; ",B43)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; EXPort</v>
       </c>
       <c r="D43" t="e">
@@ -2109,7 +2118,7 @@
         <v>52</v>
       </c>
       <c r="C44" t="str">
-        <f>_xlfn.CONCAT(A44," -&gt; ",B44)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; PRocess</v>
       </c>
       <c r="D44" t="e">
@@ -2128,7 +2137,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="str">
-        <f>_xlfn.CONCAT(A45," -&gt; ",B45)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; REPLication</v>
       </c>
       <c r="D45" t="e">
@@ -2147,7 +2156,7 @@
         <v>54</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT(A46," -&gt; ",B46)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; REQuest</v>
       </c>
       <c r="D46" t="e">
@@ -2166,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="str">
-        <f>_xlfn.CONCAT(A47," -&gt; ",B47)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; RESTore</v>
       </c>
       <c r="D47" t="e">
@@ -2185,7 +2194,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT(A48," -&gt; ",B48)</f>
+        <f t="shared" si="0"/>
         <v>CANcel -&gt; SEssion</v>
       </c>
       <c r="D48" t="e">
@@ -2204,7 +2213,7 @@
         <v>42</v>
       </c>
       <c r="C49" t="str">
-        <f>_xlfn.CONCAT(A49," -&gt; ",B49)</f>
+        <f t="shared" si="0"/>
         <v>CHECKOut -&gt; LIBVolume</v>
       </c>
       <c r="D49" t="e">
@@ -2223,7 +2232,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT(A50," -&gt; ",B50)</f>
+        <f t="shared" si="0"/>
         <v>CLEAN -&gt; DRIVE</v>
       </c>
       <c r="D50" t="e">
@@ -2239,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="str">
-        <f>_xlfn.CONCAT(A51," -&gt; ",B51)</f>
+        <f t="shared" si="0"/>
         <v>CONvert -&gt; STGpool</v>
       </c>
       <c r="D51" t="e">
@@ -2255,7 +2264,7 @@
         <v>62</v>
       </c>
       <c r="C52" t="str">
-        <f>_xlfn.CONCAT(A52," -&gt; ",B52)</f>
+        <f t="shared" si="0"/>
         <v>COPY -&gt; ACTIVEdata</v>
       </c>
       <c r="D52" t="e">
@@ -2274,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="str">
-        <f>_xlfn.CONCAT(A53," -&gt; ",B53)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; CLOptset</v>
       </c>
       <c r="D53" t="e">
@@ -2293,7 +2302,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="str">
-        <f>_xlfn.CONCAT(A54," -&gt; ",B54)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; DOmain</v>
       </c>
       <c r="D54" t="e">
@@ -2312,7 +2321,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="str">
-        <f>_xlfn.CONCAT(A55," -&gt; ",B55)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; MGmtclass</v>
       </c>
       <c r="D55" t="e">
@@ -2331,7 +2340,7 @@
         <v>32</v>
       </c>
       <c r="C56" t="str">
-        <f>_xlfn.CONCAT(A56," -&gt; ",B56)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; POlicyset</v>
       </c>
       <c r="D56" t="e">
@@ -2350,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="C57" t="str">
-        <f>_xlfn.CONCAT(A57," -&gt; ",B57)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; PROFIle</v>
       </c>
       <c r="D57" t="e">
@@ -2369,7 +2378,7 @@
         <v>68</v>
       </c>
       <c r="C58" t="str">
-        <f>_xlfn.CONCAT(A58," -&gt; ",B58)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; SCHedule</v>
       </c>
       <c r="D58" t="e">
@@ -2388,7 +2397,7 @@
         <v>69</v>
       </c>
       <c r="C59" t="str">
-        <f>_xlfn.CONCAT(A59," -&gt; ",B59)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; SCRipt</v>
       </c>
       <c r="D59" t="e">
@@ -2407,7 +2416,7 @@
         <v>70</v>
       </c>
       <c r="C60" t="str">
-        <f>_xlfn.CONCAT(A60," -&gt; ",B60)</f>
+        <f t="shared" si="0"/>
         <v>COPy -&gt; SERVERGroup</v>
       </c>
       <c r="D60" t="e">
@@ -2426,7 +2435,7 @@
         <v>72</v>
       </c>
       <c r="C61" t="str">
-        <f>_xlfn.CONCAT(A61," -&gt; ",B61)</f>
+        <f t="shared" si="0"/>
         <v>DEACtivate -&gt; DAta</v>
       </c>
       <c r="D61" t="e">
@@ -2442,7 +2451,7 @@
         <v>76</v>
       </c>
       <c r="C62" t="str">
-        <f>_xlfn.CONCAT(A62," -&gt; ",B62)</f>
+        <f t="shared" si="0"/>
         <v>DEfine -&gt; ALERTTrigger</v>
       </c>
       <c r="D62" t="e">
@@ -2458,7 +2467,7 @@
         <v>78</v>
       </c>
       <c r="C63" t="str">
-        <f>_xlfn.CONCAT(A63," -&gt; ",B63)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; BACKUPSET</v>
       </c>
       <c r="D63" t="e">
@@ -2474,7 +2483,7 @@
         <v>79</v>
       </c>
       <c r="C64" t="str">
-        <f>_xlfn.CONCAT(A64," -&gt; ",B64)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; CLIENTAction</v>
       </c>
       <c r="D64" t="e">
@@ -2493,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="C65" t="str">
-        <f>_xlfn.CONCAT(A65," -&gt; ",B65)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; CLIENTOpt</v>
       </c>
       <c r="D65" t="e">
@@ -2509,7 +2518,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="str">
-        <f>_xlfn.CONCAT(A66," -&gt; ",B66)</f>
+        <f t="shared" si="0"/>
         <v>DEFine -&gt; CLOptset</v>
       </c>
       <c r="D66" t="e">
@@ -2525,7 +2534,7 @@
         <v>81</v>
       </c>
       <c r="C67" t="str">
-        <f>_xlfn.CONCAT(A67," -&gt; ",B67)</f>
+        <f t="shared" ref="C67:C130" si="1">_xlfn.CONCAT(A67," -&gt; ",B67)</f>
         <v>DEFine -&gt; COLLOCGroup</v>
       </c>
       <c r="D67" t="e">
@@ -2541,7 +2550,7 @@
         <v>82</v>
       </c>
       <c r="C68" t="str">
-        <f>_xlfn.CONCAT(A68," -&gt; ",B68)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; COLLOCMember</v>
       </c>
       <c r="D68" t="e">
@@ -2557,7 +2566,7 @@
         <v>83</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT(A69," -&gt; ",B69)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; CONNection</v>
       </c>
       <c r="D69" t="e">
@@ -2573,7 +2582,7 @@
         <v>84</v>
       </c>
       <c r="C70" t="str">
-        <f>_xlfn.CONCAT(A70," -&gt; ",B70)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; COpygroup</v>
       </c>
       <c r="D70" t="e">
@@ -2592,7 +2601,7 @@
         <v>85</v>
       </c>
       <c r="C71" t="str">
-        <f>_xlfn.CONCAT(A71," -&gt; ",B71)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; DATAMover</v>
       </c>
       <c r="D71" t="e">
@@ -2608,7 +2617,7 @@
         <v>65</v>
       </c>
       <c r="C72" t="str">
-        <f>_xlfn.CONCAT(A72," -&gt; ",B72)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; DOmain</v>
       </c>
       <c r="D72" t="e">
@@ -2627,7 +2636,7 @@
         <v>86</v>
       </c>
       <c r="C73" t="str">
-        <f>_xlfn.CONCAT(A73," -&gt; ",B73)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; DRive</v>
       </c>
       <c r="D73" t="e">
@@ -2643,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="C74" t="str">
-        <f>_xlfn.CONCAT(A74," -&gt; ",B74)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; EVENTSERVer</v>
       </c>
       <c r="D74" t="e">
@@ -2659,7 +2668,7 @@
         <v>87</v>
       </c>
       <c r="C75" t="str">
-        <f>_xlfn.CONCAT(A75," -&gt; ",B75)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; GRPMEMber</v>
       </c>
       <c r="D75" t="e">
@@ -2675,7 +2684,7 @@
         <v>88</v>
       </c>
       <c r="C76" t="str">
-        <f>_xlfn.CONCAT(A76," -&gt; ",B76)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; HOLD</v>
       </c>
       <c r="D76" t="e">
@@ -2691,7 +2700,7 @@
         <v>41</v>
       </c>
       <c r="C77" t="str">
-        <f>_xlfn.CONCAT(A77," -&gt; ",B77)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; LIBRary</v>
       </c>
       <c r="D77" t="e">
@@ -2710,7 +2719,7 @@
         <v>89</v>
       </c>
       <c r="C78" t="str">
-        <f>_xlfn.CONCAT(A78," -&gt; ",B78)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; MACHine</v>
       </c>
       <c r="D78" t="e">
@@ -2726,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="C79" t="str">
-        <f>_xlfn.CONCAT(A79," -&gt; ",B79)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; MACHNODEAssociation</v>
       </c>
       <c r="D79" t="e">
@@ -2742,7 +2751,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="str">
-        <f>_xlfn.CONCAT(A80," -&gt; ",B80)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; MGmtclass</v>
       </c>
       <c r="D80" t="e">
@@ -2761,7 +2770,7 @@
         <v>91</v>
       </c>
       <c r="C81" t="str">
-        <f>_xlfn.CONCAT(A81," -&gt; ",B81)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; NODEGroup</v>
       </c>
       <c r="D81" t="e">
@@ -2777,7 +2786,7 @@
         <v>92</v>
       </c>
       <c r="C82" t="str">
-        <f>_xlfn.CONCAT(A82," -&gt; ",B82)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; NODEGROUPMember</v>
       </c>
       <c r="D82" t="e">
@@ -2793,7 +2802,7 @@
         <v>93</v>
       </c>
       <c r="C83" t="str">
-        <f>_xlfn.CONCAT(A83," -&gt; ",B83)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; OBJECTDomain</v>
       </c>
       <c r="D83" t="e">
@@ -2809,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="C84" t="str">
-        <f>_xlfn.CONCAT(A84," -&gt; ",B84)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; PATH</v>
       </c>
       <c r="D84" t="e">
@@ -2828,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT(A85," -&gt; ",B85)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; POlicyset</v>
       </c>
       <c r="D85" t="e">
@@ -2847,7 +2856,7 @@
         <v>95</v>
       </c>
       <c r="C86" t="str">
-        <f>_xlfn.CONCAT(A86," -&gt; ",B86)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; PROFASSOCiation</v>
       </c>
       <c r="D86" t="e">
@@ -2863,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="C87" t="str">
-        <f>_xlfn.CONCAT(A87," -&gt; ",B87)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; PROFIle</v>
       </c>
       <c r="D87" t="e">
@@ -2879,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="C88" t="str">
-        <f>_xlfn.CONCAT(A88," -&gt; ",B88)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; RECMEDMACHAssociation</v>
       </c>
       <c r="D88" t="e">
@@ -2895,7 +2904,7 @@
         <v>97</v>
       </c>
       <c r="C89" t="str">
-        <f>_xlfn.CONCAT(A89," -&gt; ",B89)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; RECOVERYMedia</v>
       </c>
       <c r="D89" t="e">
@@ -2911,7 +2920,7 @@
         <v>98</v>
       </c>
       <c r="C90" t="str">
-        <f>_xlfn.CONCAT(A90," -&gt; ",B90)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; RETRule</v>
       </c>
       <c r="D90" t="e">
@@ -2927,7 +2936,7 @@
         <v>68</v>
       </c>
       <c r="C91" t="str">
-        <f>_xlfn.CONCAT(A91," -&gt; ",B91)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SCHedule</v>
       </c>
       <c r="D91" t="e">
@@ -2946,7 +2955,7 @@
         <v>99</v>
       </c>
       <c r="C92" t="str">
-        <f>_xlfn.CONCAT(A92," -&gt; ",B92)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SCRATCHPadentry</v>
       </c>
       <c r="D92" t="e">
@@ -2962,7 +2971,7 @@
         <v>69</v>
       </c>
       <c r="C93" t="str">
-        <f>_xlfn.CONCAT(A93," -&gt; ",B93)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SCRipt</v>
       </c>
       <c r="D93" t="e">
@@ -2978,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.CONCAT(A94," -&gt; ",B94)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SERver</v>
       </c>
       <c r="D94" t="e">
@@ -2997,7 +3006,7 @@
         <v>70</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.CONCAT(A95," -&gt; ",B95)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SERVERGroup</v>
       </c>
       <c r="D95" t="e">
@@ -3013,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.CONCAT(A96," -&gt; ",B96)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SPACETrigger</v>
       </c>
       <c r="D96" t="e">
@@ -3029,7 +3038,7 @@
         <v>101</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.CONCAT(A97," -&gt; ",B97)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; STAtusthreshold</v>
       </c>
       <c r="D97" t="e">
@@ -3045,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.CONCAT(A98," -&gt; ",B98)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; STGpool</v>
       </c>
       <c r="D98" t="e">
@@ -3064,7 +3073,7 @@
         <v>102</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.CONCAT(A99," -&gt; ",B99)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; STGPOOLDIRectory</v>
       </c>
       <c r="D99" t="e">
@@ -3083,7 +3092,7 @@
         <v>103</v>
       </c>
       <c r="C100" t="str">
-        <f>_xlfn.CONCAT(A100," -&gt; ",B100)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; STGRULE</v>
       </c>
       <c r="D100" t="e">
@@ -3099,7 +3108,7 @@
         <v>104</v>
       </c>
       <c r="C101" t="str">
-        <f>_xlfn.CONCAT(A101," -&gt; ",B101)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SUBRule</v>
       </c>
       <c r="D101" t="e">
@@ -3115,7 +3124,7 @@
         <v>105</v>
       </c>
       <c r="C102" t="str">
-        <f>_xlfn.CONCAT(A102," -&gt; ",B102)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; SUBSCRIPtion</v>
       </c>
       <c r="D102" t="e">
@@ -3131,7 +3140,7 @@
         <v>106</v>
       </c>
       <c r="C103" t="str">
-        <f>_xlfn.CONCAT(A103," -&gt; ",B103)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; VIRTUALFSmapping</v>
       </c>
       <c r="D103" t="e">
@@ -3147,7 +3156,7 @@
         <v>44</v>
       </c>
       <c r="C104" t="str">
-        <f>_xlfn.CONCAT(A104," -&gt; ",B104)</f>
+        <f t="shared" si="1"/>
         <v>DEFine -&gt; Volume</v>
       </c>
       <c r="D104" t="e">
@@ -3163,7 +3172,7 @@
         <v>76</v>
       </c>
       <c r="C105" t="str">
-        <f>_xlfn.CONCAT(A105," -&gt; ",B105)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; ALERTTrigger</v>
       </c>
       <c r="D105" t="e">
@@ -3182,7 +3191,7 @@
         <v>77</v>
       </c>
       <c r="C106" t="str">
-        <f>_xlfn.CONCAT(A106," -&gt; ",B106)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; ASSOCiation</v>
       </c>
       <c r="D106" t="e">
@@ -3201,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="C107" t="str">
-        <f>_xlfn.CONCAT(A107," -&gt; ",B107)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; BACKUPSET</v>
       </c>
       <c r="D107" t="e">
@@ -3220,7 +3229,7 @@
         <v>80</v>
       </c>
       <c r="C108" t="str">
-        <f>_xlfn.CONCAT(A108," -&gt; ",B108)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; CLIENTOpt</v>
       </c>
       <c r="D108" t="e">
@@ -3239,7 +3248,7 @@
         <v>64</v>
       </c>
       <c r="C109" t="str">
-        <f>_xlfn.CONCAT(A109," -&gt; ",B109)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; CLOptset</v>
       </c>
       <c r="D109" t="e">
@@ -3258,7 +3267,7 @@
         <v>81</v>
       </c>
       <c r="C110" t="str">
-        <f>_xlfn.CONCAT(A110," -&gt; ",B110)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; COLLOCGroup</v>
       </c>
       <c r="D110" t="e">
@@ -3277,7 +3286,7 @@
         <v>82</v>
       </c>
       <c r="C111" t="str">
-        <f>_xlfn.CONCAT(A111," -&gt; ",B111)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; COLLOCMember</v>
       </c>
       <c r="D111" t="e">
@@ -3296,7 +3305,7 @@
         <v>83</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT(A112," -&gt; ",B112)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; CONNection</v>
       </c>
       <c r="D112" t="e">
@@ -3315,7 +3324,7 @@
         <v>84</v>
       </c>
       <c r="C113" t="str">
-        <f>_xlfn.CONCAT(A113," -&gt; ",B113)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; COpygroup</v>
       </c>
       <c r="D113" t="e">
@@ -3334,7 +3343,7 @@
         <v>85</v>
       </c>
       <c r="C114" t="str">
-        <f>_xlfn.CONCAT(A114," -&gt; ",B114)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; DATAMover</v>
       </c>
       <c r="D114" t="e">
@@ -3353,7 +3362,7 @@
         <v>107</v>
       </c>
       <c r="C115" t="str">
-        <f>_xlfn.CONCAT(A115," -&gt; ",B115)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; DEDUPSTats</v>
       </c>
       <c r="D115" t="e">
@@ -3372,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="str">
-        <f>_xlfn.CONCAT(A116," -&gt; ",B116)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; DEVclass</v>
       </c>
       <c r="D116" t="e">
@@ -3391,7 +3400,7 @@
         <v>65</v>
       </c>
       <c r="C117" t="str">
-        <f>_xlfn.CONCAT(A117," -&gt; ",B117)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; DOmain</v>
       </c>
       <c r="D117" t="e">
@@ -3410,7 +3419,7 @@
         <v>86</v>
       </c>
       <c r="C118" t="str">
-        <f>_xlfn.CONCAT(A118," -&gt; ",B118)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; DRive</v>
       </c>
       <c r="D118" t="e">
@@ -3429,7 +3438,7 @@
         <v>108</v>
       </c>
       <c r="C119" t="str">
-        <f>_xlfn.CONCAT(A119," -&gt; ",B119)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; EVent</v>
       </c>
       <c r="D119" t="e">
@@ -3448,7 +3457,7 @@
         <v>28</v>
       </c>
       <c r="C120" t="str">
-        <f>_xlfn.CONCAT(A120," -&gt; ",B120)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; EVENTSERVer</v>
       </c>
       <c r="D120" t="e">
@@ -3467,7 +3476,7 @@
         <v>109</v>
       </c>
       <c r="C121" t="str">
-        <f>_xlfn.CONCAT(A121," -&gt; ",B121)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; FIlespace</v>
       </c>
       <c r="D121" t="e">
@@ -3486,7 +3495,7 @@
         <v>87</v>
       </c>
       <c r="C122" t="str">
-        <f>_xlfn.CONCAT(A122," -&gt; ",B122)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; GRPMEMber</v>
       </c>
       <c r="D122" t="e">
@@ -3505,7 +3514,7 @@
         <v>41</v>
       </c>
       <c r="C123" t="str">
-        <f>_xlfn.CONCAT(A123," -&gt; ",B123)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; LIBRary</v>
       </c>
       <c r="D123" t="e">
@@ -3524,7 +3533,7 @@
         <v>89</v>
       </c>
       <c r="C124" t="str">
-        <f>_xlfn.CONCAT(A124," -&gt; ",B124)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; MACHine</v>
       </c>
       <c r="D124" t="e">
@@ -3543,7 +3552,7 @@
         <v>90</v>
       </c>
       <c r="C125" t="str">
-        <f>_xlfn.CONCAT(A125," -&gt; ",B125)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; MACHNODEAssociation</v>
       </c>
       <c r="D125" t="e">
@@ -3562,7 +3571,7 @@
         <v>66</v>
       </c>
       <c r="C126" t="str">
-        <f>_xlfn.CONCAT(A126," -&gt; ",B126)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; MGmtclass</v>
       </c>
       <c r="D126" t="e">
@@ -3581,7 +3590,7 @@
         <v>91</v>
       </c>
       <c r="C127" t="str">
-        <f>_xlfn.CONCAT(A127," -&gt; ",B127)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; NODEGroup</v>
       </c>
       <c r="D127" t="e">
@@ -3600,7 +3609,7 @@
         <v>92</v>
       </c>
       <c r="C128" t="str">
-        <f>_xlfn.CONCAT(A128," -&gt; ",B128)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; NODEGROUPMember</v>
       </c>
       <c r="D128" t="e">
@@ -3619,7 +3628,7 @@
         <v>94</v>
       </c>
       <c r="C129" t="str">
-        <f>_xlfn.CONCAT(A129," -&gt; ",B129)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; PATH</v>
       </c>
       <c r="D129" t="e">
@@ -3638,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="C130" t="str">
-        <f>_xlfn.CONCAT(A130," -&gt; ",B130)</f>
+        <f t="shared" si="1"/>
         <v>DELete -&gt; POlicyset</v>
       </c>
       <c r="D130" t="e">
@@ -3657,7 +3666,7 @@
         <v>95</v>
       </c>
       <c r="C131" t="str">
-        <f>_xlfn.CONCAT(A131," -&gt; ",B131)</f>
+        <f t="shared" ref="C131:C194" si="2">_xlfn.CONCAT(A131," -&gt; ",B131)</f>
         <v>DELete -&gt; PROFASSOCiation</v>
       </c>
       <c r="D131" t="e">
@@ -3676,7 +3685,7 @@
         <v>67</v>
       </c>
       <c r="C132" t="str">
-        <f>_xlfn.CONCAT(A132," -&gt; ",B132)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; PROFIle</v>
       </c>
       <c r="D132" t="e">
@@ -3695,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="C133" t="str">
-        <f>_xlfn.CONCAT(A133," -&gt; ",B133)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; RECMEDMACHAssociation</v>
       </c>
       <c r="D133" t="e">
@@ -3714,7 +3723,7 @@
         <v>97</v>
       </c>
       <c r="C134" t="str">
-        <f>_xlfn.CONCAT(A134," -&gt; ",B134)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; RECOVERYMedia</v>
       </c>
       <c r="D134" t="e">
@@ -3733,7 +3742,7 @@
         <v>98</v>
       </c>
       <c r="C135" t="str">
-        <f>_xlfn.CONCAT(A135," -&gt; ",B135)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; RETRule</v>
       </c>
       <c r="D135" t="e">
@@ -3752,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="C136" t="str">
-        <f>_xlfn.CONCAT(A136," -&gt; ",B136)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; RETSet</v>
       </c>
       <c r="D136" t="e">
@@ -3771,7 +3780,7 @@
         <v>68</v>
       </c>
       <c r="C137" t="str">
-        <f>_xlfn.CONCAT(A137," -&gt; ",B137)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SCHedule</v>
       </c>
       <c r="D137" t="e">
@@ -3790,7 +3799,7 @@
         <v>99</v>
       </c>
       <c r="C138" t="str">
-        <f>_xlfn.CONCAT(A138," -&gt; ",B138)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SCRATCHPadentry</v>
       </c>
       <c r="D138" t="e">
@@ -3809,7 +3818,7 @@
         <v>69</v>
       </c>
       <c r="C139" t="str">
-        <f>_xlfn.CONCAT(A139," -&gt; ",B139)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SCRipt</v>
       </c>
       <c r="D139" t="e">
@@ -3828,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="str">
-        <f>_xlfn.CONCAT(A140," -&gt; ",B140)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SERver</v>
       </c>
       <c r="D140" t="e">
@@ -3847,7 +3856,7 @@
         <v>70</v>
       </c>
       <c r="C141" t="str">
-        <f>_xlfn.CONCAT(A141," -&gt; ",B141)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SERVERGroup</v>
       </c>
       <c r="D141" t="e">
@@ -3866,7 +3875,7 @@
         <v>100</v>
       </c>
       <c r="C142" t="str">
-        <f>_xlfn.CONCAT(A142," -&gt; ",B142)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SPACETrigger</v>
       </c>
       <c r="D142" t="e">
@@ -3885,7 +3894,7 @@
         <v>101</v>
       </c>
       <c r="C143" t="str">
-        <f>_xlfn.CONCAT(A143," -&gt; ",B143)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; STAtusthreshold</v>
       </c>
       <c r="D143" t="e">
@@ -3904,7 +3913,7 @@
         <v>102</v>
       </c>
       <c r="C144" t="str">
-        <f>_xlfn.CONCAT(A144," -&gt; ",B144)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; STGPOOLDIRectory</v>
       </c>
       <c r="D144" t="e">
@@ -3923,7 +3932,7 @@
         <v>103</v>
       </c>
       <c r="C145" t="str">
-        <f>_xlfn.CONCAT(A145," -&gt; ",B145)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; STGRULE</v>
       </c>
       <c r="D145" t="e">
@@ -3942,7 +3951,7 @@
         <v>110</v>
       </c>
       <c r="C146" t="str">
-        <f>_xlfn.CONCAT(A146," -&gt; ",B146)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SUBRULE</v>
       </c>
       <c r="D146" t="e">
@@ -3961,7 +3970,7 @@
         <v>111</v>
       </c>
       <c r="C147" t="str">
-        <f>_xlfn.CONCAT(A147," -&gt; ",B147)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SUBSCRIBer</v>
       </c>
       <c r="D147" t="e">
@@ -3980,7 +3989,7 @@
         <v>105</v>
       </c>
       <c r="C148" t="str">
-        <f>_xlfn.CONCAT(A148," -&gt; ",B148)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; SUBSCRIPtion</v>
       </c>
       <c r="D148" t="e">
@@ -3999,7 +4008,7 @@
         <v>106</v>
       </c>
       <c r="C149" t="str">
-        <f>_xlfn.CONCAT(A149," -&gt; ",B149)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; VIRTUALFSmapping</v>
       </c>
       <c r="D149" t="e">
@@ -4018,7 +4027,7 @@
         <v>48</v>
       </c>
       <c r="C150" t="str">
-        <f>_xlfn.CONCAT(A150," -&gt; ",B150)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; VOLHistory</v>
       </c>
       <c r="D150" t="e">
@@ -4037,7 +4046,7 @@
         <v>44</v>
       </c>
       <c r="C151" t="str">
-        <f>_xlfn.CONCAT(A151," -&gt; ",B151)</f>
+        <f t="shared" si="2"/>
         <v>DELete -&gt; Volume</v>
       </c>
       <c r="D151" t="e">
@@ -4056,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="C152" t="str">
-        <f>_xlfn.CONCAT(A152," -&gt; ",B152)</f>
+        <f t="shared" si="2"/>
         <v>DISAble -&gt; EVents</v>
       </c>
       <c r="D152" t="e">
@@ -4072,7 +4081,7 @@
         <v>53</v>
       </c>
       <c r="C153" t="str">
-        <f>_xlfn.CONCAT(A153," -&gt; ",B153)</f>
+        <f t="shared" si="2"/>
         <v>DISAble -&gt; REPLication</v>
       </c>
       <c r="D153" t="e">
@@ -4088,7 +4097,7 @@
         <v>113</v>
       </c>
       <c r="C154" t="str">
-        <f>_xlfn.CONCAT(A154," -&gt; ",B154)</f>
+        <f t="shared" si="2"/>
         <v>DISAble -&gt; SESSions</v>
       </c>
       <c r="D154" t="e">
@@ -4104,7 +4113,7 @@
         <v>44</v>
       </c>
       <c r="C155" t="str">
-        <f>_xlfn.CONCAT(A155," -&gt; ",B155)</f>
+        <f t="shared" si="2"/>
         <v>DISMount -&gt; Volume</v>
       </c>
       <c r="D155" t="e">
@@ -4120,7 +4129,7 @@
         <v>116</v>
       </c>
       <c r="C156" t="str">
-        <f>_xlfn.CONCAT(A156," -&gt; ",B156)</f>
+        <f t="shared" si="2"/>
         <v>DISplay -&gt; OBJname</v>
       </c>
       <c r="D156" t="e">
@@ -4136,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="C157" t="str">
-        <f>_xlfn.CONCAT(A157," -&gt; ",B157)</f>
+        <f t="shared" si="2"/>
         <v>ENable -&gt; EVents</v>
       </c>
       <c r="D157" t="e">
@@ -4152,7 +4161,7 @@
         <v>53</v>
       </c>
       <c r="C158" t="str">
-        <f>_xlfn.CONCAT(A158," -&gt; ",B158)</f>
+        <f t="shared" si="2"/>
         <v>ENable -&gt; REPLication</v>
       </c>
       <c r="D158" t="e">
@@ -4168,7 +4177,7 @@
         <v>113</v>
       </c>
       <c r="C159" t="str">
-        <f>_xlfn.CONCAT(A159," -&gt; ",B159)</f>
+        <f t="shared" si="2"/>
         <v>ENable -&gt; SESSions</v>
       </c>
       <c r="D159" t="e">
@@ -4184,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="C160" t="str">
-        <f>_xlfn.CONCAT(A160," -&gt; ",B160)</f>
+        <f t="shared" si="2"/>
         <v>ENCrypt -&gt; STGpool</v>
       </c>
       <c r="D160" t="e">
@@ -4200,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="C161" t="str">
-        <f>_xlfn.CONCAT(A161," -&gt; ",B161)</f>
+        <f t="shared" si="2"/>
         <v>END -&gt; EVentlogging</v>
       </c>
       <c r="D161" t="e">
@@ -4216,7 +4225,7 @@
         <v>119</v>
       </c>
       <c r="C162" t="str">
-        <f>_xlfn.CONCAT(A162," -&gt; ",B162)</f>
+        <f t="shared" si="2"/>
         <v>EXPIre -&gt; Inventory</v>
       </c>
       <c r="D162" t="e">
@@ -4235,7 +4244,7 @@
         <v>120</v>
       </c>
       <c r="C163" t="str">
-        <f>_xlfn.CONCAT(A163," -&gt; ",B163)</f>
+        <f t="shared" si="2"/>
         <v>EXPort -&gt; Admin</v>
       </c>
       <c r="D163" t="e">
@@ -4251,7 +4260,7 @@
         <v>47</v>
       </c>
       <c r="C164" t="str">
-        <f>_xlfn.CONCAT(A164," -&gt; ",B164)</f>
+        <f t="shared" si="2"/>
         <v>EXPort -&gt; Node</v>
       </c>
       <c r="D164" t="e">
@@ -4267,7 +4276,7 @@
         <v>121</v>
       </c>
       <c r="C165" t="str">
-        <f>_xlfn.CONCAT(A165," -&gt; ",B165)</f>
+        <f t="shared" si="2"/>
         <v>EXPort -&gt; Policy</v>
       </c>
       <c r="D165" t="e">
@@ -4283,7 +4292,7 @@
         <v>122</v>
       </c>
       <c r="C166" t="str">
-        <f>_xlfn.CONCAT(A166," -&gt; ",B166)</f>
+        <f t="shared" si="2"/>
         <v>EXPort -&gt; Server</v>
       </c>
       <c r="D166" t="e">
@@ -4299,7 +4308,7 @@
         <v>124</v>
       </c>
       <c r="C167" t="str">
-        <f>_xlfn.CONCAT(A167," -&gt; ",B167)</f>
+        <f t="shared" si="2"/>
         <v>EXTend -&gt; DBSpace</v>
       </c>
       <c r="D167" t="e">
@@ -4315,7 +4324,7 @@
         <v>78</v>
       </c>
       <c r="C168" t="str">
-        <f>_xlfn.CONCAT(A168," -&gt; ",B168)</f>
+        <f t="shared" si="2"/>
         <v>GENerate -&gt; BACKUPSET</v>
       </c>
       <c r="D168" t="e">
@@ -4331,7 +4340,7 @@
         <v>126</v>
       </c>
       <c r="C169" t="str">
-        <f>_xlfn.CONCAT(A169," -&gt; ",B169)</f>
+        <f t="shared" si="2"/>
         <v>GENerate -&gt; BACKUPSETTOC</v>
       </c>
       <c r="D169" t="e">
@@ -4347,7 +4356,7 @@
         <v>107</v>
       </c>
       <c r="C170" t="str">
-        <f>_xlfn.CONCAT(A170," -&gt; ",B170)</f>
+        <f t="shared" si="2"/>
         <v>GENerate -&gt; DEDUPSTats</v>
       </c>
       <c r="D170" t="e">
@@ -4363,7 +4372,7 @@
         <v>127</v>
       </c>
       <c r="C171" t="str">
-        <f>_xlfn.CONCAT(A171," -&gt; ",B171)</f>
+        <f t="shared" si="2"/>
         <v>GENerate -&gt; SECRET</v>
       </c>
       <c r="D171" t="e">
@@ -4379,7 +4388,7 @@
         <v>129</v>
       </c>
       <c r="C172" t="str">
-        <f>_xlfn.CONCAT(A172," -&gt; ",B172)</f>
+        <f t="shared" si="2"/>
         <v>GRant -&gt; AUTHority</v>
       </c>
       <c r="D172" t="e">
@@ -4395,7 +4404,7 @@
         <v>130</v>
       </c>
       <c r="C173" t="str">
-        <f>_xlfn.CONCAT(A173," -&gt; ",B173)</f>
+        <f t="shared" si="2"/>
         <v>GRant -&gt; PROXynode</v>
       </c>
       <c r="D173" t="e">
@@ -4411,7 +4420,7 @@
         <v>23</v>
       </c>
       <c r="C174" t="str">
-        <f>_xlfn.CONCAT(A174," -&gt; ",B174)</f>
+        <f t="shared" si="2"/>
         <v>HOld -&gt; RETSet</v>
       </c>
       <c r="D174" t="e">
@@ -4427,7 +4436,7 @@
         <v>133</v>
       </c>
       <c r="C175" t="str">
-        <f>_xlfn.CONCAT(A175," -&gt; ",B175)</f>
+        <f t="shared" si="2"/>
         <v>IDentify -&gt; DUPlicates</v>
       </c>
       <c r="D175" t="e">
@@ -4443,7 +4452,7 @@
         <v>120</v>
       </c>
       <c r="C176" t="str">
-        <f>_xlfn.CONCAT(A176," -&gt; ",B176)</f>
+        <f t="shared" si="2"/>
         <v>IMport -&gt; Admin</v>
       </c>
       <c r="D176" t="e">
@@ -4459,7 +4468,7 @@
         <v>47</v>
       </c>
       <c r="C177" t="str">
-        <f>_xlfn.CONCAT(A177," -&gt; ",B177)</f>
+        <f t="shared" si="2"/>
         <v>IMport -&gt; Node</v>
       </c>
       <c r="D177" t="e">
@@ -4475,7 +4484,7 @@
         <v>121</v>
       </c>
       <c r="C178" t="str">
-        <f>_xlfn.CONCAT(A178," -&gt; ",B178)</f>
+        <f t="shared" si="2"/>
         <v>IMport -&gt; Policy</v>
       </c>
       <c r="D178" t="e">
@@ -4491,7 +4500,7 @@
         <v>122</v>
       </c>
       <c r="C179" t="str">
-        <f>_xlfn.CONCAT(A179," -&gt; ",B179)</f>
+        <f t="shared" si="2"/>
         <v>IMport -&gt; Server</v>
       </c>
       <c r="D179" t="e">
@@ -4507,7 +4516,7 @@
         <v>136</v>
       </c>
       <c r="C180" t="str">
-        <f>_xlfn.CONCAT(A180," -&gt; ",B180)</f>
+        <f t="shared" si="2"/>
         <v>INsert -&gt; MAchine</v>
       </c>
       <c r="D180" t="e">
@@ -4523,7 +4532,7 @@
         <v>138</v>
       </c>
       <c r="C181" t="str">
-        <f>_xlfn.CONCAT(A181," -&gt; ",B181)</f>
+        <f t="shared" si="2"/>
         <v>INTERRupt -&gt; JOb</v>
       </c>
       <c r="D181" t="e">
@@ -4539,7 +4548,7 @@
         <v>140</v>
       </c>
       <c r="C182" t="str">
-        <f>_xlfn.CONCAT(A182," -&gt; ",B182)</f>
+        <f t="shared" si="2"/>
         <v>ISSUE -&gt; MESSAGE</v>
       </c>
       <c r="D182" t="e">
@@ -4555,7 +4564,7 @@
         <v>42</v>
       </c>
       <c r="C183" t="str">
-        <f>_xlfn.CONCAT(A183," -&gt; ",B183)</f>
+        <f t="shared" si="2"/>
         <v>LABEl -&gt; LIBVolume</v>
       </c>
       <c r="D183" t="e">
@@ -4571,7 +4580,7 @@
         <v>143</v>
       </c>
       <c r="C184" t="str">
-        <f>_xlfn.CONCAT(A184," -&gt; ",B184)</f>
+        <f t="shared" si="2"/>
         <v>LOad -&gt; DEFALerttriggers</v>
       </c>
       <c r="D184" t="e">
@@ -4587,7 +4596,7 @@
         <v>120</v>
       </c>
       <c r="C185" t="str">
-        <f>_xlfn.CONCAT(A185," -&gt; ",B185)</f>
+        <f t="shared" si="2"/>
         <v>LOCK -&gt; Admin</v>
       </c>
       <c r="D185" t="e">
@@ -4603,7 +4612,7 @@
         <v>47</v>
       </c>
       <c r="C186" t="str">
-        <f>_xlfn.CONCAT(A186," -&gt; ",B186)</f>
+        <f t="shared" si="2"/>
         <v>LOCK -&gt; Node</v>
       </c>
       <c r="D186" t="e">
@@ -4619,7 +4628,7 @@
         <v>67</v>
       </c>
       <c r="C187" t="str">
-        <f>_xlfn.CONCAT(A187," -&gt; ",B187)</f>
+        <f t="shared" si="2"/>
         <v>LOCK -&gt; PROFIle</v>
       </c>
       <c r="D187" t="e">
@@ -4635,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="C188" t="str">
-        <f>_xlfn.CONCAT(A188," -&gt; ",B188)</f>
+        <f t="shared" si="2"/>
         <v>MIGrate -&gt; STGpool</v>
       </c>
       <c r="D188" t="e">
@@ -4651,7 +4660,7 @@
         <v>38</v>
       </c>
       <c r="C189" t="str">
-        <f>_xlfn.CONCAT(A189," -&gt; ",B189)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; CONTainer</v>
       </c>
       <c r="D189" t="e">
@@ -4667,7 +4676,7 @@
         <v>147</v>
       </c>
       <c r="C190" t="str">
-        <f>_xlfn.CONCAT(A190," -&gt; ",B190)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; Data</v>
       </c>
       <c r="D190" t="e">
@@ -4686,7 +4695,7 @@
         <v>148</v>
       </c>
       <c r="C191" t="str">
-        <f>_xlfn.CONCAT(A191," -&gt; ",B191)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; DRMedia</v>
       </c>
       <c r="D191" t="e">
@@ -4702,7 +4711,7 @@
         <v>87</v>
       </c>
       <c r="C192" t="str">
-        <f>_xlfn.CONCAT(A192," -&gt; ",B192)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; GRPMEMber</v>
       </c>
       <c r="D192" t="e">
@@ -4718,7 +4727,7 @@
         <v>149</v>
       </c>
       <c r="C193" t="str">
-        <f>_xlfn.CONCAT(A193," -&gt; ",B193)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; MEDia</v>
       </c>
       <c r="D193" t="e">
@@ -4734,7 +4743,7 @@
         <v>150</v>
       </c>
       <c r="C194" t="str">
-        <f>_xlfn.CONCAT(A194," -&gt; ",B194)</f>
+        <f t="shared" si="2"/>
         <v>MOVe -&gt; NODEdata</v>
       </c>
       <c r="D194" t="e">
@@ -4753,7 +4762,7 @@
         <v>151</v>
       </c>
       <c r="C195" t="str">
-        <f>_xlfn.CONCAT(A195," -&gt; ",B195)</f>
+        <f t="shared" ref="C195:C258" si="3">_xlfn.CONCAT(A195," -&gt; ",B195)</f>
         <v>MOVe -&gt; RETMedia</v>
       </c>
       <c r="D195" t="e">
@@ -4769,7 +4778,7 @@
         <v>153</v>
       </c>
       <c r="C196" t="str">
-        <f>_xlfn.CONCAT(A196," -&gt; ",B196)</f>
+        <f t="shared" si="3"/>
         <v>NOTIfy -&gt; SUBSCRIBers</v>
       </c>
       <c r="D196" t="e">
@@ -4785,7 +4794,7 @@
         <v>155</v>
       </c>
       <c r="C197" t="str">
-        <f>_xlfn.CONCAT(A197," -&gt; ",B197)</f>
+        <f t="shared" si="3"/>
         <v>PERForm -&gt; LIBACTion</v>
       </c>
       <c r="D197" t="e">
@@ -4801,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="str">
-        <f>_xlfn.CONCAT(A198," -&gt; ",B198)</f>
+        <f t="shared" si="3"/>
         <v>PING -&gt; SERVER</v>
       </c>
       <c r="D198" t="e">
@@ -4820,7 +4829,7 @@
         <v>158</v>
       </c>
       <c r="C199" t="str">
-        <f>_xlfn.CONCAT(A199," -&gt; ",B199)</f>
+        <f t="shared" si="3"/>
         <v>PROTect -&gt; STGPool</v>
       </c>
       <c r="D199" t="e">
@@ -4836,7 +4845,7 @@
         <v>160</v>
       </c>
       <c r="C200" t="str">
-        <f>_xlfn.CONCAT(A200," -&gt; ",B200)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; ADmin</v>
       </c>
       <c r="D200" t="e">
@@ -4852,7 +4861,7 @@
         <v>161</v>
       </c>
       <c r="C201" t="str">
-        <f>_xlfn.CONCAT(A201," -&gt; ",B201)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; ALERTSTatus</v>
       </c>
       <c r="D201" t="e">
@@ -4868,7 +4877,7 @@
         <v>76</v>
       </c>
       <c r="C202" t="str">
-        <f>_xlfn.CONCAT(A202," -&gt; ",B202)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; ALERTTrigger</v>
       </c>
       <c r="D202" t="e">
@@ -4884,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="C203" t="str">
-        <f>_xlfn.CONCAT(A203," -&gt; ",B203)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; ASSOCiation</v>
       </c>
       <c r="D203" t="e">
@@ -4900,7 +4909,7 @@
         <v>162</v>
       </c>
       <c r="C204" t="str">
-        <f>_xlfn.CONCAT(A204," -&gt; ",B204)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; AUDITOccupancy</v>
       </c>
       <c r="D204" t="e">
@@ -4916,7 +4925,7 @@
         <v>78</v>
       </c>
       <c r="C205" t="str">
-        <f>_xlfn.CONCAT(A205," -&gt; ",B205)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; BACKUPSET</v>
       </c>
       <c r="D205" t="e">
@@ -4932,7 +4941,7 @@
         <v>163</v>
       </c>
       <c r="C206" t="str">
-        <f>_xlfn.CONCAT(A206," -&gt; ",B206)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; BACKUPSETCONTENTS</v>
       </c>
       <c r="D206" t="e">
@@ -4948,7 +4957,7 @@
         <v>164</v>
       </c>
       <c r="C207" t="str">
-        <f>_xlfn.CONCAT(A207," -&gt; ",B207)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CLeanup</v>
       </c>
       <c r="D207" t="e">
@@ -4964,7 +4973,7 @@
         <v>64</v>
       </c>
       <c r="C208" t="str">
-        <f>_xlfn.CONCAT(A208," -&gt; ",B208)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CLOptset</v>
       </c>
       <c r="D208" t="e">
@@ -4980,7 +4989,7 @@
         <v>165</v>
       </c>
       <c r="C209" t="str">
-        <f>_xlfn.CONCAT(A209," -&gt; ",B209)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CLOUDReadcache</v>
       </c>
       <c r="D209" t="e">
@@ -4996,7 +5005,7 @@
         <v>81</v>
       </c>
       <c r="C210" t="str">
-        <f>_xlfn.CONCAT(A210," -&gt; ",B210)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; COLLOCGroup</v>
       </c>
       <c r="D210" t="e">
@@ -5012,7 +5021,7 @@
         <v>83</v>
       </c>
       <c r="C211" t="str">
-        <f>_xlfn.CONCAT(A211," -&gt; ",B211)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CONNection</v>
       </c>
       <c r="D211" t="e">
@@ -5028,7 +5037,7 @@
         <v>166</v>
       </c>
       <c r="C212" t="str">
-        <f>_xlfn.CONCAT(A212," -&gt; ",B212)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CONTAINER</v>
       </c>
       <c r="D212" t="e">
@@ -5044,7 +5053,7 @@
         <v>167</v>
       </c>
       <c r="C213" t="str">
-        <f>_xlfn.CONCAT(A213," -&gt; ",B213)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CONtent</v>
       </c>
       <c r="D213" t="e">
@@ -5060,7 +5069,7 @@
         <v>168</v>
       </c>
       <c r="C214" t="str">
-        <f>_xlfn.CONCAT(A214," -&gt; ",B214)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; CONVERSion</v>
       </c>
       <c r="D214" t="e">
@@ -5076,7 +5085,7 @@
         <v>84</v>
       </c>
       <c r="C215" t="str">
-        <f>_xlfn.CONCAT(A215," -&gt; ",B215)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; COpygroup</v>
       </c>
       <c r="D215" t="e">
@@ -5092,7 +5101,7 @@
         <v>169</v>
       </c>
       <c r="C216" t="str">
-        <f>_xlfn.CONCAT(A216," -&gt; ",B216)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DAMaged</v>
       </c>
       <c r="D216" t="e">
@@ -5108,7 +5117,7 @@
         <v>85</v>
       </c>
       <c r="C217" t="str">
-        <f>_xlfn.CONCAT(A217," -&gt; ",B217)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DATAMover</v>
       </c>
       <c r="D217" t="e">
@@ -5124,7 +5133,7 @@
         <v>46</v>
       </c>
       <c r="C218" t="str">
-        <f>_xlfn.CONCAT(A218," -&gt; ",B218)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DB</v>
       </c>
       <c r="D218" t="e">
@@ -5140,7 +5149,7 @@
         <v>124</v>
       </c>
       <c r="C219" t="str">
-        <f>_xlfn.CONCAT(A219," -&gt; ",B219)</f>
+        <f t="shared" si="3"/>
         <v>QUERY -&gt; DBSpace</v>
       </c>
       <c r="D219" t="e">
@@ -5156,7 +5165,7 @@
         <v>107</v>
       </c>
       <c r="C220" t="str">
-        <f>_xlfn.CONCAT(A220," -&gt; ",B220)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DEDUPSTats</v>
       </c>
       <c r="D220" t="e">
@@ -5172,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="str">
-        <f>_xlfn.CONCAT(A221," -&gt; ",B221)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DEVclass</v>
       </c>
       <c r="D221" t="e">
@@ -5188,7 +5197,7 @@
         <v>171</v>
       </c>
       <c r="C222" t="str">
-        <f>_xlfn.CONCAT(A222," -&gt; ",B222)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DIRSPace</v>
       </c>
       <c r="D222" t="e">
@@ -5204,7 +5213,7 @@
         <v>65</v>
       </c>
       <c r="C223" t="str">
-        <f>_xlfn.CONCAT(A223," -&gt; ",B223)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DOmain</v>
       </c>
       <c r="D223" t="e">
@@ -5220,7 +5229,7 @@
         <v>86</v>
       </c>
       <c r="C224" t="str">
-        <f>_xlfn.CONCAT(A224," -&gt; ",B224)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DRive</v>
       </c>
       <c r="D224" t="e">
@@ -5236,7 +5245,7 @@
         <v>148</v>
       </c>
       <c r="C225" t="str">
-        <f>_xlfn.CONCAT(A225," -&gt; ",B225)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DRMedia</v>
       </c>
       <c r="D225" t="e">
@@ -5252,7 +5261,7 @@
         <v>172</v>
       </c>
       <c r="C226" t="str">
-        <f>_xlfn.CONCAT(A226," -&gt; ",B226)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; DRMSTatus</v>
       </c>
       <c r="D226" t="e">
@@ -5268,7 +5277,7 @@
         <v>108</v>
       </c>
       <c r="C227" t="str">
-        <f>_xlfn.CONCAT(A227," -&gt; ",B227)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; EVent</v>
       </c>
       <c r="D227" t="e">
@@ -5284,7 +5293,7 @@
         <v>28</v>
       </c>
       <c r="C228" t="str">
-        <f>_xlfn.CONCAT(A228," -&gt; ",B228)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; EVENTSERVer</v>
       </c>
       <c r="D228" t="e">
@@ -5300,7 +5309,7 @@
         <v>51</v>
       </c>
       <c r="C229" t="str">
-        <f>_xlfn.CONCAT(A229," -&gt; ",B229)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; EXPort</v>
       </c>
       <c r="D229" t="e">
@@ -5316,7 +5325,7 @@
         <v>173</v>
       </c>
       <c r="C230" t="str">
-        <f>_xlfn.CONCAT(A230," -&gt; ",B230)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; EXTENTUPDates</v>
       </c>
       <c r="D230" t="e">
@@ -5332,7 +5341,7 @@
         <v>174</v>
       </c>
       <c r="C231" t="str">
-        <f>_xlfn.CONCAT(A231," -&gt; ",B231)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; FSCounts</v>
       </c>
       <c r="D231" t="e">
@@ -5348,7 +5357,7 @@
         <v>88</v>
       </c>
       <c r="C232" t="str">
-        <f>_xlfn.CONCAT(A232," -&gt; ",B232)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; HOLD</v>
       </c>
       <c r="D232" t="e">
@@ -5364,7 +5373,7 @@
         <v>176</v>
       </c>
       <c r="C233" t="str">
-        <f>_xlfn.CONCAT(A233," -&gt; ",B233)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; HOLDlog</v>
       </c>
       <c r="D233" t="e">
@@ -5380,7 +5389,7 @@
         <v>175</v>
       </c>
       <c r="C234" t="str">
-        <f>_xlfn.CONCAT(A234," -&gt; ",B234)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; JOB</v>
       </c>
       <c r="D234" t="e">
@@ -5396,7 +5405,7 @@
         <v>41</v>
       </c>
       <c r="C235" t="str">
-        <f>_xlfn.CONCAT(A235," -&gt; ",B235)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; LIBRary</v>
       </c>
       <c r="D235" t="e">
@@ -5412,7 +5421,7 @@
         <v>42</v>
       </c>
       <c r="C236" t="str">
-        <f>_xlfn.CONCAT(A236," -&gt; ",B236)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; LIBVolume</v>
       </c>
       <c r="D236" t="e">
@@ -5428,7 +5437,7 @@
         <v>177</v>
       </c>
       <c r="C237" t="str">
-        <f>_xlfn.CONCAT(A237," -&gt; ",B237)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; LICense</v>
       </c>
       <c r="D237" t="e">
@@ -5444,7 +5453,7 @@
         <v>89</v>
       </c>
       <c r="C238" t="str">
-        <f>_xlfn.CONCAT(A238," -&gt; ",B238)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MACHine</v>
       </c>
       <c r="D238" t="e">
@@ -5460,7 +5469,7 @@
         <v>149</v>
       </c>
       <c r="C239" t="str">
-        <f>_xlfn.CONCAT(A239," -&gt; ",B239)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MEDia</v>
       </c>
       <c r="D239" t="e">
@@ -5476,7 +5485,7 @@
         <v>66</v>
       </c>
       <c r="C240" t="str">
-        <f>_xlfn.CONCAT(A240," -&gt; ",B240)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MGmtclass</v>
       </c>
       <c r="D240" t="e">
@@ -5492,7 +5501,7 @@
         <v>179</v>
       </c>
       <c r="C241" t="str">
-        <f>_xlfn.CONCAT(A241," -&gt; ",B241)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MONITORSEttings</v>
       </c>
       <c r="D241" t="e">
@@ -5508,7 +5517,7 @@
         <v>180</v>
       </c>
       <c r="C242" t="str">
-        <f>_xlfn.CONCAT(A242," -&gt; ",B242)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MONITORSTatus</v>
       </c>
       <c r="D242" t="e">
@@ -5524,7 +5533,7 @@
         <v>181</v>
       </c>
       <c r="C243" t="str">
-        <f>_xlfn.CONCAT(A243," -&gt; ",B243)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; MOunt</v>
       </c>
       <c r="D243" t="e">
@@ -5540,7 +5549,7 @@
         <v>182</v>
       </c>
       <c r="C244" t="str">
-        <f>_xlfn.CONCAT(A244," -&gt; ",B244)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; NASBAckup</v>
       </c>
       <c r="D244" t="e">
@@ -5556,7 +5565,7 @@
         <v>183</v>
       </c>
       <c r="C245" t="str">
-        <f>_xlfn.CONCAT(A245," -&gt; ",B245)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; NODEData</v>
       </c>
       <c r="D245" t="e">
@@ -5572,7 +5581,7 @@
         <v>91</v>
       </c>
       <c r="C246" t="str">
-        <f>_xlfn.CONCAT(A246," -&gt; ",B246)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; NODEGroup</v>
       </c>
       <c r="D246" t="e">
@@ -5588,7 +5597,7 @@
         <v>184</v>
       </c>
       <c r="C247" t="str">
-        <f>_xlfn.CONCAT(A247," -&gt; ",B247)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; OCCupancy</v>
       </c>
       <c r="D247" t="e">
@@ -5604,7 +5613,7 @@
         <v>34</v>
       </c>
       <c r="C248" t="str">
-        <f>_xlfn.CONCAT(A248," -&gt; ",B248)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; PEndingcmd</v>
       </c>
       <c r="D248" t="e">
@@ -5620,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="C249" t="str">
-        <f>_xlfn.CONCAT(A249," -&gt; ",B249)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; POlicyset</v>
       </c>
       <c r="D249" t="e">
@@ -5636,7 +5645,7 @@
         <v>67</v>
       </c>
       <c r="C250" t="str">
-        <f>_xlfn.CONCAT(A250," -&gt; ",B250)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; PROFIle</v>
       </c>
       <c r="D250" t="e">
@@ -5652,7 +5661,7 @@
         <v>186</v>
       </c>
       <c r="C251" t="str">
-        <f>_xlfn.CONCAT(A251," -&gt; ",B251)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; PROTECTStatus</v>
       </c>
       <c r="D251" t="e">
@@ -5668,7 +5677,7 @@
         <v>130</v>
       </c>
       <c r="C252" t="str">
-        <f>_xlfn.CONCAT(A252," -&gt; ",B252)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; PROXynode</v>
       </c>
       <c r="D252" t="e">
@@ -5684,7 +5693,7 @@
         <v>187</v>
       </c>
       <c r="C253" t="str">
-        <f>_xlfn.CONCAT(A253," -&gt; ",B253)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; PVUESTIMate</v>
       </c>
       <c r="D253" t="e">
@@ -5700,7 +5709,7 @@
         <v>97</v>
       </c>
       <c r="C254" t="str">
-        <f>_xlfn.CONCAT(A254," -&gt; ",B254)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; RECOVERYMedia</v>
       </c>
       <c r="D254" t="e">
@@ -5716,7 +5725,7 @@
         <v>188</v>
       </c>
       <c r="C255" t="str">
-        <f>_xlfn.CONCAT(A255," -&gt; ",B255)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; REPLFAILures</v>
       </c>
       <c r="D255" t="e">
@@ -5732,7 +5741,7 @@
         <v>189</v>
       </c>
       <c r="C256" t="str">
-        <f>_xlfn.CONCAT(A256," -&gt; ",B256)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; REPLIcation</v>
       </c>
       <c r="D256" t="e">
@@ -5748,7 +5757,7 @@
         <v>190</v>
       </c>
       <c r="C257" t="str">
-        <f>_xlfn.CONCAT(A257," -&gt; ",B257)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; REPLNode</v>
       </c>
       <c r="D257" t="e">
@@ -5764,7 +5773,7 @@
         <v>191</v>
       </c>
       <c r="C258" t="str">
-        <f>_xlfn.CONCAT(A258," -&gt; ",B258)</f>
+        <f t="shared" si="3"/>
         <v>Query -&gt; REPLRule</v>
       </c>
       <c r="D258" t="e">
@@ -5780,7 +5789,7 @@
         <v>192</v>
       </c>
       <c r="C259" t="str">
-        <f>_xlfn.CONCAT(A259," -&gt; ",B259)</f>
+        <f t="shared" ref="C259:C322" si="4">_xlfn.CONCAT(A259," -&gt; ",B259)</f>
         <v>Query -&gt; REPLServer</v>
       </c>
       <c r="D259" t="e">
@@ -5796,7 +5805,7 @@
         <v>54</v>
       </c>
       <c r="C260" t="str">
-        <f>_xlfn.CONCAT(A260," -&gt; ",B260)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; REQuest</v>
       </c>
       <c r="D260" t="e">
@@ -5812,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="C261" t="str">
-        <f>_xlfn.CONCAT(A261," -&gt; ",B261)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RESTore</v>
       </c>
       <c r="D261" t="e">
@@ -5828,7 +5837,7 @@
         <v>151</v>
       </c>
       <c r="C262" t="str">
-        <f>_xlfn.CONCAT(A262," -&gt; ",B262)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RETMedia</v>
       </c>
       <c r="D262" t="e">
@@ -5844,7 +5853,7 @@
         <v>98</v>
       </c>
       <c r="C263" t="str">
-        <f>_xlfn.CONCAT(A263," -&gt; ",B263)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RETRule</v>
       </c>
       <c r="D263" t="e">
@@ -5860,7 +5869,7 @@
         <v>23</v>
       </c>
       <c r="C264" t="str">
-        <f>_xlfn.CONCAT(A264," -&gt; ",B264)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RETSet</v>
       </c>
       <c r="D264" t="e">
@@ -5876,7 +5885,7 @@
         <v>193</v>
       </c>
       <c r="C265" t="str">
-        <f>_xlfn.CONCAT(A265," -&gt; ",B265)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RETSETContents</v>
       </c>
       <c r="D265" t="e">
@@ -5892,7 +5901,7 @@
         <v>194</v>
       </c>
       <c r="C266" t="str">
-        <f>_xlfn.CONCAT(A266," -&gt; ",B266)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RPFContent</v>
       </c>
       <c r="D266" t="e">
@@ -5908,7 +5917,7 @@
         <v>195</v>
       </c>
       <c r="C267" t="str">
-        <f>_xlfn.CONCAT(A267," -&gt; ",B267)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; RPFile</v>
       </c>
       <c r="D267" t="e">
@@ -5924,7 +5933,7 @@
         <v>196</v>
       </c>
       <c r="C268" t="str">
-        <f>_xlfn.CONCAT(A268," -&gt; ",B268)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SAN</v>
       </c>
       <c r="D268" t="e">
@@ -5940,7 +5949,7 @@
         <v>68</v>
       </c>
       <c r="C269" t="str">
-        <f>_xlfn.CONCAT(A269," -&gt; ",B269)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SCHedule</v>
       </c>
       <c r="D269" t="e">
@@ -5956,7 +5965,7 @@
         <v>99</v>
       </c>
       <c r="C270" t="str">
-        <f>_xlfn.CONCAT(A270," -&gt; ",B270)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SCRATCHPadentry</v>
       </c>
       <c r="D270" t="e">
@@ -5972,7 +5981,7 @@
         <v>69</v>
       </c>
       <c r="C271" t="str">
-        <f>_xlfn.CONCAT(A271," -&gt; ",B271)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SCRipt</v>
       </c>
       <c r="D271" t="e">
@@ -5988,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="C272" t="str">
-        <f>_xlfn.CONCAT(A272," -&gt; ",B272)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SERver</v>
       </c>
       <c r="D272" t="e">
@@ -6004,7 +6013,7 @@
         <v>70</v>
       </c>
       <c r="C273" t="str">
-        <f>_xlfn.CONCAT(A273," -&gt; ",B273)</f>
+        <f t="shared" si="4"/>
         <v>QUERY -&gt; SERVERGroup</v>
       </c>
       <c r="D273" t="e">
@@ -6020,7 +6029,7 @@
         <v>197</v>
       </c>
       <c r="C274" t="str">
-        <f>_xlfn.CONCAT(A274," -&gt; ",B274)</f>
+        <f t="shared" si="4"/>
         <v>QUERY -&gt; SHREDstatus</v>
       </c>
       <c r="D274" t="e">
@@ -6036,7 +6045,7 @@
         <v>100</v>
       </c>
       <c r="C275" t="str">
-        <f>_xlfn.CONCAT(A275," -&gt; ",B275)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SPACETrigger</v>
       </c>
       <c r="D275" t="e">
@@ -6052,7 +6061,7 @@
         <v>198</v>
       </c>
       <c r="C276" t="str">
-        <f>_xlfn.CONCAT(A276," -&gt; ",B276)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; STatus</v>
       </c>
       <c r="D276" t="e">
@@ -6068,7 +6077,7 @@
         <v>101</v>
       </c>
       <c r="C277" t="str">
-        <f>_xlfn.CONCAT(A277," -&gt; ",B277)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; STAtusthreshold</v>
       </c>
       <c r="D277" t="e">
@@ -6084,7 +6093,7 @@
         <v>102</v>
       </c>
       <c r="C278" t="str">
-        <f>_xlfn.CONCAT(A278," -&gt; ",B278)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; STGPOOLDIRectory</v>
       </c>
       <c r="D278" t="e">
@@ -6100,7 +6109,7 @@
         <v>103</v>
       </c>
       <c r="C279" t="str">
-        <f>_xlfn.CONCAT(A279," -&gt; ",B279)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; STGRULE</v>
       </c>
       <c r="D279" t="e">
@@ -6116,7 +6125,7 @@
         <v>110</v>
       </c>
       <c r="C280" t="str">
-        <f>_xlfn.CONCAT(A280," -&gt; ",B280)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SUBRULE</v>
       </c>
       <c r="D280" t="e">
@@ -6132,7 +6141,7 @@
         <v>111</v>
       </c>
       <c r="C281" t="str">
-        <f>_xlfn.CONCAT(A281," -&gt; ",B281)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SUBSCRIBer</v>
       </c>
       <c r="D281" t="e">
@@ -6148,7 +6157,7 @@
         <v>105</v>
       </c>
       <c r="C282" t="str">
-        <f>_xlfn.CONCAT(A282," -&gt; ",B282)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SUBSCRIPtion</v>
       </c>
       <c r="D282" t="e">
@@ -6164,7 +6173,7 @@
         <v>199</v>
       </c>
       <c r="C283" t="str">
-        <f>_xlfn.CONCAT(A283," -&gt; ",B283)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; SYStem</v>
       </c>
       <c r="D283" t="e">
@@ -6180,7 +6189,7 @@
         <v>200</v>
       </c>
       <c r="C284" t="str">
-        <f>_xlfn.CONCAT(A284," -&gt; ",B284)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; TAPEAlertmsg</v>
       </c>
       <c r="D284" t="e">
@@ -6196,7 +6205,7 @@
         <v>201</v>
       </c>
       <c r="C285" t="str">
-        <f>_xlfn.CONCAT(A285," -&gt; ",B285)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; TOC</v>
       </c>
       <c r="D285" t="e">
@@ -6212,7 +6221,7 @@
         <v>106</v>
       </c>
       <c r="C286" t="str">
-        <f>_xlfn.CONCAT(A286," -&gt; ",B286)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; VIRTUALFSmapping</v>
       </c>
       <c r="D286" t="e">
@@ -6228,7 +6237,7 @@
         <v>48</v>
       </c>
       <c r="C287" t="str">
-        <f>_xlfn.CONCAT(A287," -&gt; ",B287)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; VOLHistory</v>
       </c>
       <c r="D287" t="e">
@@ -6244,7 +6253,7 @@
         <v>44</v>
       </c>
       <c r="C288" t="str">
-        <f>_xlfn.CONCAT(A288," -&gt; ",B288)</f>
+        <f t="shared" si="4"/>
         <v>Query -&gt; Volume</v>
       </c>
       <c r="D288" t="e">
@@ -6260,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="C289" t="str">
-        <f>_xlfn.CONCAT(A289," -&gt; ",B289)</f>
+        <f t="shared" si="4"/>
         <v>RECLaim -&gt; STGpool</v>
       </c>
       <c r="D289" t="e">
@@ -6276,7 +6285,7 @@
         <v>205</v>
       </c>
       <c r="C290" t="str">
-        <f>_xlfn.CONCAT(A290," -&gt; ",B290)</f>
+        <f t="shared" si="4"/>
         <v>REConcile -&gt; Volumes</v>
       </c>
       <c r="D290" t="e">
@@ -6292,7 +6301,7 @@
         <v>120</v>
       </c>
       <c r="C291" t="str">
-        <f>_xlfn.CONCAT(A291," -&gt; ",B291)</f>
+        <f t="shared" si="4"/>
         <v>REGister -&gt; Admin</v>
       </c>
       <c r="D291" t="e">
@@ -6308,7 +6317,7 @@
         <v>177</v>
       </c>
       <c r="C292" t="str">
-        <f>_xlfn.CONCAT(A292," -&gt; ",B292)</f>
+        <f t="shared" si="4"/>
         <v>REGister -&gt; LICense</v>
       </c>
       <c r="D292" t="e">
@@ -6324,7 +6333,7 @@
         <v>47</v>
       </c>
       <c r="C293" t="str">
-        <f>_xlfn.CONCAT(A293," -&gt; ",B293)</f>
+        <f t="shared" si="4"/>
         <v>REGister -&gt; Node</v>
       </c>
       <c r="D293" t="e">
@@ -6340,7 +6349,7 @@
         <v>34</v>
       </c>
       <c r="C294" t="str">
-        <f>_xlfn.CONCAT(A294," -&gt; ",B294)</f>
+        <f t="shared" si="4"/>
         <v>REJect -&gt; PEndingcmd</v>
       </c>
       <c r="D294" t="e">
@@ -6356,7 +6365,7 @@
         <v>23</v>
       </c>
       <c r="C295" t="str">
-        <f>_xlfn.CONCAT(A295," -&gt; ",B295)</f>
+        <f t="shared" si="4"/>
         <v>RELease -&gt; RETSet</v>
       </c>
       <c r="D295" t="e">
@@ -6372,7 +6381,7 @@
         <v>120</v>
       </c>
       <c r="C296" t="str">
-        <f>_xlfn.CONCAT(A296," -&gt; ",B296)</f>
+        <f t="shared" si="4"/>
         <v>REMove -&gt; Admin</v>
       </c>
       <c r="D296" t="e">
@@ -6391,7 +6400,7 @@
         <v>169</v>
       </c>
       <c r="C297" t="str">
-        <f>_xlfn.CONCAT(A297," -&gt; ",B297)</f>
+        <f t="shared" si="4"/>
         <v>REMove -&gt; DAMaged</v>
       </c>
       <c r="D297" t="e">
@@ -6410,7 +6419,7 @@
         <v>190</v>
       </c>
       <c r="C298" t="str">
-        <f>_xlfn.CONCAT(A298," -&gt; ",B298)</f>
+        <f t="shared" si="4"/>
         <v>REMove -&gt; REPLNode</v>
       </c>
       <c r="D298" t="e">
@@ -6429,7 +6438,7 @@
         <v>192</v>
       </c>
       <c r="C299" t="str">
-        <f>_xlfn.CONCAT(A299," -&gt; ",B299)</f>
+        <f t="shared" si="4"/>
         <v>REMove -&gt; REPLServer</v>
       </c>
       <c r="D299" t="e">
@@ -6448,7 +6457,7 @@
         <v>210</v>
       </c>
       <c r="C300" t="str">
-        <f>_xlfn.CONCAT(A300," -&gt; ",B300)</f>
+        <f t="shared" si="4"/>
         <v>REMove -&gt; STGProtection</v>
       </c>
       <c r="D300" t="e">
@@ -6467,7 +6476,7 @@
         <v>120</v>
       </c>
       <c r="C301" t="str">
-        <f>_xlfn.CONCAT(A301," -&gt; ",B301)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; Admin</v>
       </c>
       <c r="D301" t="e">
@@ -6486,7 +6495,7 @@
         <v>109</v>
       </c>
       <c r="C302" t="str">
-        <f>_xlfn.CONCAT(A302," -&gt; ",B302)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; FIlespace</v>
       </c>
       <c r="D302" t="e">
@@ -6505,7 +6514,7 @@
         <v>88</v>
       </c>
       <c r="C303" t="str">
-        <f>_xlfn.CONCAT(A303," -&gt; ",B303)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; HOLD</v>
       </c>
       <c r="D303" t="e">
@@ -6524,7 +6533,7 @@
         <v>47</v>
       </c>
       <c r="C304" t="str">
-        <f>_xlfn.CONCAT(A304," -&gt; ",B304)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; Node</v>
       </c>
       <c r="D304" t="e">
@@ -6535,7 +6544,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>211</v>
       </c>
@@ -6543,7 +6552,7 @@
         <v>98</v>
       </c>
       <c r="C305" t="str">
-        <f>_xlfn.CONCAT(A305," -&gt; ",B305)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; RETRule</v>
       </c>
       <c r="D305" t="e">
@@ -6554,7 +6563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>211</v>
       </c>
@@ -6562,7 +6571,7 @@
         <v>69</v>
       </c>
       <c r="C306" t="str">
-        <f>_xlfn.CONCAT(A306," -&gt; ",B306)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; SCRipt</v>
       </c>
       <c r="D306" t="e">
@@ -6573,7 +6582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>211</v>
       </c>
@@ -6581,7 +6590,7 @@
         <v>70</v>
       </c>
       <c r="C307" t="str">
-        <f>_xlfn.CONCAT(A307," -&gt; ",B307)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; SERVERGroup</v>
       </c>
       <c r="D307" t="e">
@@ -6592,7 +6601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>211</v>
       </c>
@@ -6600,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="C308" t="str">
-        <f>_xlfn.CONCAT(A308," -&gt; ",B308)</f>
+        <f t="shared" si="4"/>
         <v>REName -&gt; STGpool</v>
       </c>
       <c r="D308" t="e">
@@ -6611,7 +6620,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>212</v>
       </c>
@@ -6619,7 +6628,7 @@
         <v>158</v>
       </c>
       <c r="C309" t="str">
-        <f>_xlfn.CONCAT(A309," -&gt; ",B309)</f>
+        <f t="shared" si="4"/>
         <v>REPAir -&gt; STGPool</v>
       </c>
       <c r="D309" t="e">
@@ -6627,7 +6636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>213</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>47</v>
       </c>
       <c r="C310" t="str">
-        <f>_xlfn.CONCAT(A310," -&gt; ",B310)</f>
+        <f t="shared" si="4"/>
         <v>REPLicate -&gt; Node</v>
       </c>
       <c r="D310" t="e">
@@ -6643,7 +6652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -6651,7 +6660,7 @@
         <v>215</v>
       </c>
       <c r="C311" t="str">
-        <f>_xlfn.CONCAT(A311," -&gt; ",B311)</f>
+        <f t="shared" si="4"/>
         <v>RESet -&gt; PASSExp</v>
       </c>
       <c r="D311" t="e">
@@ -6659,7 +6668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>216</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>217</v>
       </c>
       <c r="C312" t="str">
-        <f>_xlfn.CONCAT(A312," -&gt; ",B312)</f>
+        <f t="shared" si="4"/>
         <v>RESTART -&gt; EXPORT</v>
       </c>
       <c r="D312" t="e">
@@ -6675,7 +6684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>218</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>47</v>
       </c>
       <c r="C313" t="str">
-        <f>_xlfn.CONCAT(A313," -&gt; ",B313)</f>
+        <f t="shared" si="4"/>
         <v>RESTORE -&gt; Node</v>
       </c>
       <c r="D313" t="e">
@@ -6691,7 +6700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>218</v>
       </c>
@@ -6699,7 +6708,7 @@
         <v>12</v>
       </c>
       <c r="C314" t="str">
-        <f>_xlfn.CONCAT(A314," -&gt; ",B314)</f>
+        <f t="shared" si="4"/>
         <v>RESTORE -&gt; STGpool</v>
       </c>
       <c r="D314" t="e">
@@ -6707,7 +6716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>218</v>
       </c>
@@ -6715,7 +6724,7 @@
         <v>44</v>
       </c>
       <c r="C315" t="str">
-        <f>_xlfn.CONCAT(A315," -&gt; ",B315)</f>
+        <f t="shared" si="4"/>
         <v>RESTORE -&gt; Volume</v>
       </c>
       <c r="D315" t="e">
@@ -6723,7 +6732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>219</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>138</v>
       </c>
       <c r="C316" t="str">
-        <f>_xlfn.CONCAT(A316," -&gt; ",B316)</f>
+        <f t="shared" si="4"/>
         <v>RESUme -&gt; JOb</v>
       </c>
       <c r="D316" t="e">
@@ -6739,7 +6748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>129</v>
       </c>
       <c r="C317" t="str">
-        <f>_xlfn.CONCAT(A317," -&gt; ",B317)</f>
+        <f t="shared" si="4"/>
         <v>REVoke -&gt; AUTHority</v>
       </c>
       <c r="D317" t="e">
@@ -6755,7 +6764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>220</v>
       </c>
@@ -6763,7 +6772,7 @@
         <v>130</v>
       </c>
       <c r="C318" t="str">
-        <f>_xlfn.CONCAT(A318," -&gt; ",B318)</f>
+        <f t="shared" si="4"/>
         <v>REVoke -&gt; PROXynode</v>
       </c>
       <c r="D318" t="e">
@@ -6771,7 +6780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -6779,15 +6788,18 @@
         <v>227</v>
       </c>
       <c r="C319" t="str">
-        <f>_xlfn.CONCAT(A319," -&gt; ",B319)</f>
+        <f t="shared" si="4"/>
         <v>Set -&gt; ALERTEMAILSMTPHost</v>
       </c>
       <c r="D319" t="e">
         <f>VLOOKUP(C319,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="F319" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -6795,15 +6807,18 @@
         <v>228</v>
       </c>
       <c r="C320" t="str">
-        <f>_xlfn.CONCAT(A320," -&gt; ",B320)</f>
+        <f t="shared" si="4"/>
         <v>Set -&gt; ALERTEMAILSMTPPort</v>
       </c>
       <c r="D320" t="e">
         <f>VLOOKUP(C320,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="F320" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -6811,15 +6826,18 @@
         <v>230</v>
       </c>
       <c r="C321" t="str">
-        <f>_xlfn.CONCAT(A321," -&gt; ",B321)</f>
+        <f t="shared" si="4"/>
         <v>Set -&gt; ALERTINactiveduration</v>
       </c>
       <c r="D321" t="e">
         <f>VLOOKUP(C321,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="F321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -6827,15 +6845,18 @@
         <v>231</v>
       </c>
       <c r="C322" t="str">
-        <f>_xlfn.CONCAT(A322," -&gt; ",B322)</f>
+        <f t="shared" si="4"/>
         <v>Set -&gt; ALERTMONITOR</v>
       </c>
       <c r="D322" t="e">
         <f>VLOOKUP(C322,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="F322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -6843,15 +6864,18 @@
         <v>229</v>
       </c>
       <c r="C323" t="str">
-        <f>_xlfn.CONCAT(A323," -&gt; ",B323)</f>
+        <f t="shared" ref="C323:C386" si="5">_xlfn.CONCAT(A323," -&gt; ",B323)</f>
         <v>Set -&gt; ALERTSUMMARYToadmins</v>
       </c>
       <c r="D323" t="e">
         <f>VLOOKUP(C323,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="F323" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6859,15 +6883,18 @@
         <v>232</v>
       </c>
       <c r="C324" t="str">
-        <f>_xlfn.CONCAT(A324," -&gt; ",B324)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; ALERTUPDateinterval</v>
       </c>
       <c r="D324" t="e">
         <f>VLOOKUP(C324,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="F324" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -6875,15 +6902,18 @@
         <v>233</v>
       </c>
       <c r="C325" t="str">
-        <f>_xlfn.CONCAT(A325," -&gt; ",B325)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; ARCHIVERETENTIONPROTECTion</v>
       </c>
       <c r="D325" t="e">
         <f>VLOOKUP(C325,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="F325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -6891,15 +6921,18 @@
         <v>234</v>
       </c>
       <c r="C326" t="str">
-        <f>_xlfn.CONCAT(A326," -&gt; ",B326)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; ARREPLRuledefault</v>
       </c>
       <c r="D326" t="e">
         <f>VLOOKUP(C326,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="F326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -6907,15 +6940,18 @@
         <v>235</v>
       </c>
       <c r="C327" t="str">
-        <f>_xlfn.CONCAT(A327," -&gt; ",B327)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; BKREPLRuledefault</v>
       </c>
       <c r="D327" t="e">
         <f>VLOOKUP(C327,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="F327" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>236</v>
       </c>
@@ -6923,15 +6959,18 @@
         <v>237</v>
       </c>
       <c r="C328" t="str">
-        <f>_xlfn.CONCAT(A328," -&gt; ",B328)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; CLIENTACTDuration</v>
       </c>
       <c r="D328" t="e">
         <f>VLOOKUP(C328,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="F328" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -6939,15 +6978,18 @@
         <v>238</v>
       </c>
       <c r="C329" t="str">
-        <f>_xlfn.CONCAT(A329," -&gt; ",B329)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; CONFIGManager</v>
       </c>
       <c r="D329" t="e">
         <f>VLOOKUP(C329,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="F329" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -6955,15 +6997,18 @@
         <v>239</v>
       </c>
       <c r="C330" t="str">
-        <f>_xlfn.CONCAT(A330," -&gt; ",B330)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; CONFIGRefresh</v>
       </c>
       <c r="D330" t="e">
         <f>VLOOKUP(C330,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="F330" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -6971,7 +7016,7 @@
         <v>240</v>
       </c>
       <c r="C331" t="str">
-        <f>_xlfn.CONCAT(A331," -&gt; ",B331)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; CONTEXTmessaging</v>
       </c>
       <c r="D331" t="e">
@@ -6979,7 +7024,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -6987,7 +7032,7 @@
         <v>241</v>
       </c>
       <c r="C332" t="str">
-        <f>_xlfn.CONCAT(A332," -&gt; ",B332)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; CPUINFOREFRESH</v>
       </c>
       <c r="D332" t="e">
@@ -6995,7 +7040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -7003,7 +7048,7 @@
         <v>242</v>
       </c>
       <c r="C333" t="str">
-        <f>_xlfn.CONCAT(A333," -&gt; ",B333)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; CROSSDefine</v>
       </c>
       <c r="D333" t="e">
@@ -7011,7 +7056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>236</v>
       </c>
@@ -7019,7 +7064,7 @@
         <v>243</v>
       </c>
       <c r="C334" t="str">
-        <f>_xlfn.CONCAT(A334," -&gt; ",B334)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DBRECOVery</v>
       </c>
       <c r="D334" t="e">
@@ -7027,7 +7072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -7035,7 +7080,7 @@
         <v>244</v>
       </c>
       <c r="C335" t="str">
-        <f>_xlfn.CONCAT(A335," -&gt; ",B335)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DEDUPVERificationlevel</v>
       </c>
       <c r="D335" t="e">
@@ -7043,7 +7088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>236</v>
       </c>
@@ -7051,7 +7096,7 @@
         <v>245</v>
       </c>
       <c r="C336" t="str">
-        <f>_xlfn.CONCAT(A336," -&gt; ",B336)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DEFAULTAUTHentication</v>
       </c>
       <c r="D336" t="e">
@@ -7067,7 +7112,7 @@
         <v>248</v>
       </c>
       <c r="C337" t="str">
-        <f>_xlfn.CONCAT(A337," -&gt; ",B337)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DEPLOYMAXPkgs</v>
       </c>
       <c r="D337" t="e">
@@ -7083,7 +7128,7 @@
         <v>246</v>
       </c>
       <c r="C338" t="str">
-        <f>_xlfn.CONCAT(A338," -&gt; ",B338)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DEPLOYPKGMgr</v>
       </c>
       <c r="D338" t="e">
@@ -7099,7 +7144,7 @@
         <v>247</v>
       </c>
       <c r="C339" t="str">
-        <f>_xlfn.CONCAT(A339," -&gt; ",B339)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DEPLOYREPository</v>
       </c>
       <c r="D339" t="e">
@@ -7115,7 +7160,7 @@
         <v>249</v>
       </c>
       <c r="C340" t="str">
-        <f>_xlfn.CONCAT(A340," -&gt; ",B340)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DISSIMILARPolicies</v>
       </c>
       <c r="D340" t="e">
@@ -7131,7 +7176,7 @@
         <v>250</v>
       </c>
       <c r="C341" t="str">
-        <f>_xlfn.CONCAT(A341," -&gt; ",B341)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMACTIVEDatastgpool</v>
       </c>
       <c r="D341" t="e">
@@ -7147,7 +7192,7 @@
         <v>251</v>
       </c>
       <c r="C342" t="str">
-        <f>_xlfn.CONCAT(A342," -&gt; ",B342)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMCHECKLabel</v>
       </c>
       <c r="D342" t="e">
@@ -7163,7 +7208,7 @@
         <v>252</v>
       </c>
       <c r="C343" t="str">
-        <f>_xlfn.CONCAT(A343," -&gt; ",B343)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMCMDFilename</v>
       </c>
       <c r="D343" t="e">
@@ -7179,7 +7224,7 @@
         <v>253</v>
       </c>
       <c r="C344" t="str">
-        <f>_xlfn.CONCAT(A344," -&gt; ",B344)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMCOPYCONtainerstgpool</v>
       </c>
       <c r="D344" t="e">
@@ -7195,7 +7240,7 @@
         <v>254</v>
       </c>
       <c r="C345" t="str">
-        <f>_xlfn.CONCAT(A345," -&gt; ",B345)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMCOPYstgpool</v>
       </c>
       <c r="D345" t="e">
@@ -7211,7 +7256,7 @@
         <v>255</v>
       </c>
       <c r="C346" t="str">
-        <f>_xlfn.CONCAT(A346," -&gt; ",B346)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMCOUriername</v>
       </c>
       <c r="D346" t="e">
@@ -7227,7 +7272,7 @@
         <v>256</v>
       </c>
       <c r="C347" t="str">
-        <f>_xlfn.CONCAT(A347," -&gt; ",B347)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMDBBackupexpiredays</v>
       </c>
       <c r="D347" t="e">
@@ -7243,7 +7288,7 @@
         <v>257</v>
       </c>
       <c r="C348" t="str">
-        <f>_xlfn.CONCAT(A348," -&gt; ",B348)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMFILEProcess</v>
       </c>
       <c r="D348" t="e">
@@ -7259,7 +7304,7 @@
         <v>258</v>
       </c>
       <c r="C349" t="str">
-        <f>_xlfn.CONCAT(A349," -&gt; ",B349)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMINSTRPrefix</v>
       </c>
       <c r="D349" t="e">
@@ -7275,7 +7320,7 @@
         <v>259</v>
       </c>
       <c r="C350" t="str">
-        <f>_xlfn.CONCAT(A350," -&gt; ",B350)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMNOTMOuntablename</v>
       </c>
       <c r="D350" t="e">
@@ -7291,7 +7336,7 @@
         <v>260</v>
       </c>
       <c r="C351" t="str">
-        <f>_xlfn.CONCAT(A351," -&gt; ",B351)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMPLANPrefix</v>
       </c>
       <c r="D351" t="e">
@@ -7307,7 +7352,7 @@
         <v>261</v>
       </c>
       <c r="C352" t="str">
-        <f>_xlfn.CONCAT(A352," -&gt; ",B352)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMPLANVpostfix</v>
       </c>
       <c r="D352" t="e">
@@ -7323,7 +7368,7 @@
         <v>262</v>
       </c>
       <c r="C353" t="str">
-        <f>_xlfn.CONCAT(A353," -&gt; ",B353)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMPRIMstgpool</v>
       </c>
       <c r="D353" t="e">
@@ -7339,7 +7384,7 @@
         <v>263</v>
       </c>
       <c r="C354" t="str">
-        <f>_xlfn.CONCAT(A354," -&gt; ",B354)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMRETentionstgpool</v>
       </c>
       <c r="D354" t="e">
@@ -7355,7 +7400,7 @@
         <v>264</v>
       </c>
       <c r="C355" t="str">
-        <f>_xlfn.CONCAT(A355," -&gt; ",B355)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; DRMRPFEXpiredays</v>
       </c>
       <c r="D355" t="e">
@@ -7371,7 +7416,7 @@
         <v>265</v>
       </c>
       <c r="C356" t="str">
-        <f>_xlfn.CONCAT(A356," -&gt; ",B356)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; DRMVAultname</v>
       </c>
       <c r="D356" t="e">
@@ -7387,7 +7432,7 @@
         <v>266</v>
       </c>
       <c r="C357" t="str">
-        <f>_xlfn.CONCAT(A357," -&gt; ",B357)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; EVentretention</v>
       </c>
       <c r="D357" t="e">
@@ -7403,7 +7448,7 @@
         <v>267</v>
       </c>
       <c r="C358" t="str">
-        <f>_xlfn.CONCAT(A358," -&gt; ",B358)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; FAILOVERHladdress</v>
       </c>
       <c r="D358" t="e">
@@ -7419,7 +7464,7 @@
         <v>15</v>
       </c>
       <c r="C359" t="str">
-        <f>_xlfn.CONCAT(A359," -&gt; ",B359)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; INVALIDPwlimit</v>
       </c>
       <c r="D359" t="e">
@@ -7435,7 +7480,7 @@
         <v>268</v>
       </c>
       <c r="C360" t="str">
-        <f>_xlfn.CONCAT(A360," -&gt; ",B360)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; LDAPPassword</v>
       </c>
       <c r="D360" t="e">
@@ -7451,7 +7496,7 @@
         <v>269</v>
       </c>
       <c r="C361" t="str">
-        <f>_xlfn.CONCAT(A361," -&gt; ",B361)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; LDAPUser</v>
       </c>
       <c r="D361" t="e">
@@ -7467,7 +7512,7 @@
         <v>16</v>
       </c>
       <c r="C362" t="str">
-        <f>_xlfn.CONCAT(A362," -&gt; ",B362)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; LICenseauditperiod</v>
       </c>
       <c r="D362" t="e">
@@ -7483,7 +7528,7 @@
         <v>270</v>
       </c>
       <c r="C363" t="str">
-        <f>_xlfn.CONCAT(A363," -&gt; ",B363)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MAXCMDRetries</v>
       </c>
       <c r="D363" t="e">
@@ -7499,7 +7544,7 @@
         <v>271</v>
       </c>
       <c r="C364" t="str">
-        <f>_xlfn.CONCAT(A364," -&gt; ",B364)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MAXSCHedsessions</v>
       </c>
       <c r="D364" t="e">
@@ -7515,7 +7560,7 @@
         <v>17</v>
       </c>
       <c r="C365" t="str">
-        <f>_xlfn.CONCAT(A365," -&gt; ",B365)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPWCHARAlphabetic</v>
       </c>
       <c r="D365" t="e">
@@ -7531,7 +7576,7 @@
         <v>18</v>
       </c>
       <c r="C366" t="str">
-        <f>_xlfn.CONCAT(A366," -&gt; ",B366)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPWCHARLower</v>
       </c>
       <c r="D366" t="e">
@@ -7547,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="C367" t="str">
-        <f>_xlfn.CONCAT(A367," -&gt; ",B367)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPWCHARNumeric</v>
       </c>
       <c r="D367" t="e">
@@ -7563,7 +7608,7 @@
         <v>20</v>
       </c>
       <c r="C368" t="str">
-        <f>_xlfn.CONCAT(A368," -&gt; ",B368)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPWCHARSpecial</v>
       </c>
       <c r="D368" t="e">
@@ -7579,7 +7624,7 @@
         <v>21</v>
       </c>
       <c r="C369" t="str">
-        <f>_xlfn.CONCAT(A369," -&gt; ",B369)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPWCHARUpper</v>
       </c>
       <c r="D369" t="e">
@@ -7595,7 +7640,7 @@
         <v>22</v>
       </c>
       <c r="C370" t="str">
-        <f>_xlfn.CONCAT(A370," -&gt; ",B370)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MINPwlength</v>
       </c>
       <c r="D370" t="e">
@@ -7611,7 +7656,7 @@
         <v>272</v>
       </c>
       <c r="C371" t="str">
-        <f>_xlfn.CONCAT(A371," -&gt; ",B371)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MONITOREDSERVERGroup</v>
       </c>
       <c r="D371" t="e">
@@ -7627,7 +7672,7 @@
         <v>273</v>
       </c>
       <c r="C372" t="str">
-        <f>_xlfn.CONCAT(A372," -&gt; ",B372)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; MONITORINGADMIN</v>
       </c>
       <c r="D372" t="e">
@@ -7643,7 +7688,7 @@
         <v>274</v>
       </c>
       <c r="C373" t="str">
-        <f>_xlfn.CONCAT(A373," -&gt; ",B373)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; NODEATRISKINTERVAL</v>
       </c>
       <c r="D373" t="e">
@@ -7659,7 +7704,7 @@
         <v>215</v>
       </c>
       <c r="C374" t="str">
-        <f>_xlfn.CONCAT(A374," -&gt; ",B374)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; PASSExp</v>
       </c>
       <c r="D374" t="e">
@@ -7675,7 +7720,7 @@
         <v>275</v>
       </c>
       <c r="C375" t="str">
-        <f>_xlfn.CONCAT(A375," -&gt; ",B375)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; PRODUCTOFFERING</v>
       </c>
       <c r="D375" t="e">
@@ -7691,7 +7736,7 @@
         <v>276</v>
       </c>
       <c r="C376" t="str">
-        <f>_xlfn.CONCAT(A376," -&gt; ",B376)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; PWREUselimit</v>
       </c>
       <c r="D376" t="e">
@@ -7707,7 +7752,7 @@
         <v>277</v>
       </c>
       <c r="C377" t="str">
-        <f>_xlfn.CONCAT(A377," -&gt; ",B377)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; QUERYSCHedperiod</v>
       </c>
       <c r="D377" t="e">
@@ -7723,7 +7768,7 @@
         <v>278</v>
       </c>
       <c r="C378" t="str">
-        <f>_xlfn.CONCAT(A378," -&gt; ",B378)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; RANDomize</v>
       </c>
       <c r="D378" t="e">
@@ -7739,7 +7784,7 @@
         <v>279</v>
       </c>
       <c r="C379" t="str">
-        <f>_xlfn.CONCAT(A379," -&gt; ",B379)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; REPLRETention</v>
       </c>
       <c r="D379" t="e">
@@ -7755,7 +7800,7 @@
         <v>280</v>
       </c>
       <c r="C380" t="str">
-        <f>_xlfn.CONCAT(A380," -&gt; ",B380)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; REPLSERVer</v>
       </c>
       <c r="D380" t="e">
@@ -7771,7 +7816,7 @@
         <v>281</v>
       </c>
       <c r="C381" t="str">
-        <f>_xlfn.CONCAT(A381," -&gt; ",B381)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; RETRYPeriod</v>
       </c>
       <c r="D381" t="e">
@@ -7787,7 +7832,7 @@
         <v>282</v>
       </c>
       <c r="C382" t="str">
-        <f>_xlfn.CONCAT(A382," -&gt; ",B382)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; SCHEDMODes</v>
       </c>
       <c r="D382" t="e">
@@ -7803,7 +7848,7 @@
         <v>283</v>
       </c>
       <c r="C383" t="str">
-        <f>_xlfn.CONCAT(A383," -&gt; ",B383)</f>
+        <f t="shared" si="5"/>
         <v>SET -&gt; SCRATCHPADRETENTION</v>
       </c>
       <c r="D383" t="e">
@@ -7819,7 +7864,7 @@
         <v>284</v>
       </c>
       <c r="C384" t="str">
-        <f>_xlfn.CONCAT(A384," -&gt; ",B384)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; SECURITYNotif</v>
       </c>
       <c r="D384" t="e">
@@ -7835,7 +7880,7 @@
         <v>285</v>
       </c>
       <c r="C385" t="str">
-        <f>_xlfn.CONCAT(A385," -&gt; ",B385)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; SERVERHladdress</v>
       </c>
       <c r="D385" t="e">
@@ -7851,7 +7896,7 @@
         <v>286</v>
       </c>
       <c r="C386" t="str">
-        <f>_xlfn.CONCAT(A386," -&gt; ",B386)</f>
+        <f t="shared" si="5"/>
         <v>Set -&gt; SERVERLladdress</v>
       </c>
       <c r="D386" t="e">
@@ -7867,7 +7912,7 @@
         <v>287</v>
       </c>
       <c r="C387" t="str">
-        <f>_xlfn.CONCAT(A387," -&gt; ",B387)</f>
+        <f t="shared" ref="C387:C450" si="6">_xlfn.CONCAT(A387," -&gt; ",B387)</f>
         <v>Set -&gt; SERVername</v>
       </c>
       <c r="D387" t="e">
@@ -7883,7 +7928,7 @@
         <v>6</v>
       </c>
       <c r="C388" t="str">
-        <f>_xlfn.CONCAT(A388," -&gt; ",B388)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; SERVERPAssword</v>
       </c>
       <c r="D388" t="e">
@@ -7899,7 +7944,7 @@
         <v>288</v>
       </c>
       <c r="C389" t="str">
-        <f>_xlfn.CONCAT(A389," -&gt; ",B389)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; SPREPLRuledefault</v>
       </c>
       <c r="D389" t="e">
@@ -7915,7 +7960,7 @@
         <v>289</v>
       </c>
       <c r="C390" t="str">
-        <f>_xlfn.CONCAT(A390," -&gt; ",B390)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; STATUSATRISKINTERVAL</v>
       </c>
       <c r="D390" t="e">
@@ -7931,7 +7976,7 @@
         <v>290</v>
       </c>
       <c r="C391" t="str">
-        <f>_xlfn.CONCAT(A391," -&gt; ",B391)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; STATUSREFreshinterval</v>
       </c>
       <c r="D391" t="e">
@@ -7947,7 +7992,7 @@
         <v>291</v>
       </c>
       <c r="C392" t="str">
-        <f>_xlfn.CONCAT(A392," -&gt; ",B392)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; STATUSSKIPASFAILURE</v>
       </c>
       <c r="D392" t="e">
@@ -7963,7 +8008,7 @@
         <v>292</v>
       </c>
       <c r="C393" t="str">
-        <f>_xlfn.CONCAT(A393," -&gt; ",B393)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; SUBFILE</v>
       </c>
       <c r="D393" t="e">
@@ -7979,7 +8024,7 @@
         <v>293</v>
       </c>
       <c r="C394" t="str">
-        <f>_xlfn.CONCAT(A394," -&gt; ",B394)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; SUMmaryretention</v>
       </c>
       <c r="D394" t="e">
@@ -7995,7 +8040,7 @@
         <v>200</v>
       </c>
       <c r="C395" t="str">
-        <f>_xlfn.CONCAT(A395," -&gt; ",B395)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; TAPEAlertmsg</v>
       </c>
       <c r="D395" t="e">
@@ -8011,7 +8056,7 @@
         <v>294</v>
       </c>
       <c r="C396" t="str">
-        <f>_xlfn.CONCAT(A396," -&gt; ",B396)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; TOCLOADRetention</v>
       </c>
       <c r="D396" t="e">
@@ -8027,7 +8072,7 @@
         <v>295</v>
       </c>
       <c r="C397" t="str">
-        <f>_xlfn.CONCAT(A397," -&gt; ",B397)</f>
+        <f t="shared" si="6"/>
         <v>Set -&gt; VMATRISKINTERVAL</v>
       </c>
       <c r="D397" t="e">
@@ -8043,7 +8088,7 @@
         <v>297</v>
       </c>
       <c r="C398" t="str">
-        <f>_xlfn.CONCAT(A398," -&gt; ",B398)</f>
+        <f t="shared" si="6"/>
         <v>SHRED -&gt; DATA</v>
       </c>
       <c r="D398" t="e">
@@ -8059,7 +8104,7 @@
         <v>299</v>
       </c>
       <c r="C399" t="str">
-        <f>_xlfn.CONCAT(A399," -&gt; ",B399)</f>
+        <f t="shared" si="6"/>
         <v>STAGE -&gt; VOLume</v>
       </c>
       <c r="D399" t="e">
@@ -8075,7 +8120,7 @@
         <v>301</v>
       </c>
       <c r="C400" t="str">
-        <f>_xlfn.CONCAT(A400," -&gt; ",B400)</f>
+        <f t="shared" si="6"/>
         <v>STArt -&gt; STGRule</v>
       </c>
       <c r="D400" t="e">
@@ -8091,7 +8136,7 @@
         <v>303</v>
       </c>
       <c r="C401" t="str">
-        <f>_xlfn.CONCAT(A401," -&gt; ",B401)</f>
+        <f t="shared" si="6"/>
         <v>SUSPend -&gt; EXPOrt</v>
       </c>
       <c r="D401" t="e">
@@ -8107,7 +8152,7 @@
         <v>138</v>
       </c>
       <c r="C402" t="str">
-        <f>_xlfn.CONCAT(A402," -&gt; ",B402)</f>
+        <f t="shared" si="6"/>
         <v>TERMinate -&gt; JOb</v>
       </c>
       <c r="D402" t="e">
@@ -8123,7 +8168,7 @@
         <v>120</v>
       </c>
       <c r="C403" t="str">
-        <f>_xlfn.CONCAT(A403," -&gt; ",B403)</f>
+        <f t="shared" si="6"/>
         <v>UNLOCK -&gt; Admin</v>
       </c>
       <c r="D403" t="e">
@@ -8139,7 +8184,7 @@
         <v>47</v>
       </c>
       <c r="C404" t="str">
-        <f>_xlfn.CONCAT(A404," -&gt; ",B404)</f>
+        <f t="shared" si="6"/>
         <v>UNLOCK -&gt; Node</v>
       </c>
       <c r="D404" t="e">
@@ -8155,7 +8200,7 @@
         <v>67</v>
       </c>
       <c r="C405" t="str">
-        <f>_xlfn.CONCAT(A405," -&gt; ",B405)</f>
+        <f t="shared" si="6"/>
         <v>UNLOCK -&gt; PROFIle</v>
       </c>
       <c r="D405" t="e">
@@ -8171,7 +8216,7 @@
         <v>120</v>
       </c>
       <c r="C406" t="str">
-        <f>_xlfn.CONCAT(A406," -&gt; ",B406)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; Admin</v>
       </c>
       <c r="D406" t="e">
@@ -8187,7 +8232,7 @@
         <v>161</v>
       </c>
       <c r="C407" t="str">
-        <f>_xlfn.CONCAT(A407," -&gt; ",B407)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; ALERTSTatus</v>
       </c>
       <c r="D407" t="e">
@@ -8203,7 +8248,7 @@
         <v>76</v>
       </c>
       <c r="C408" t="str">
-        <f>_xlfn.CONCAT(A408," -&gt; ",B408)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; ALERTTrigger</v>
       </c>
       <c r="D408" t="e">
@@ -8219,7 +8264,7 @@
         <v>78</v>
       </c>
       <c r="C409" t="str">
-        <f>_xlfn.CONCAT(A409," -&gt; ",B409)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; BACKUPSET</v>
       </c>
       <c r="D409" t="e">
@@ -8235,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="C410" t="str">
-        <f>_xlfn.CONCAT(A410," -&gt; ",B410)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; CLIENTOpt</v>
       </c>
       <c r="D410" t="e">
@@ -8254,7 +8299,7 @@
         <v>64</v>
       </c>
       <c r="C411" t="str">
-        <f>_xlfn.CONCAT(A411," -&gt; ",B411)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; CLOptset</v>
       </c>
       <c r="D411" t="e">
@@ -8270,7 +8315,7 @@
         <v>81</v>
       </c>
       <c r="C412" t="str">
-        <f>_xlfn.CONCAT(A412," -&gt; ",B412)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; COLLOCGroup</v>
       </c>
       <c r="D412" t="e">
@@ -8286,7 +8331,7 @@
         <v>83</v>
       </c>
       <c r="C413" t="str">
-        <f>_xlfn.CONCAT(A413," -&gt; ",B413)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; CONNection</v>
       </c>
       <c r="D413" t="e">
@@ -8302,7 +8347,7 @@
         <v>84</v>
       </c>
       <c r="C414" t="str">
-        <f>_xlfn.CONCAT(A414," -&gt; ",B414)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; COpygroup</v>
       </c>
       <c r="D414" t="e">
@@ -8318,7 +8363,7 @@
         <v>85</v>
       </c>
       <c r="C415" t="str">
-        <f>_xlfn.CONCAT(A415," -&gt; ",B415)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; DATAMover</v>
       </c>
       <c r="D415" t="e">
@@ -8334,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="str">
-        <f>_xlfn.CONCAT(A416," -&gt; ",B416)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; DEVclass</v>
       </c>
       <c r="D416" t="e">
@@ -8353,7 +8398,7 @@
         <v>65</v>
       </c>
       <c r="C417" t="str">
-        <f>_xlfn.CONCAT(A417," -&gt; ",B417)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; DOmain</v>
       </c>
       <c r="D417" t="e">
@@ -8369,7 +8414,7 @@
         <v>86</v>
       </c>
       <c r="C418" t="str">
-        <f>_xlfn.CONCAT(A418," -&gt; ",B418)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; DRive</v>
       </c>
       <c r="D418" t="e">
@@ -8388,7 +8433,7 @@
         <v>109</v>
       </c>
       <c r="C419" t="str">
-        <f>_xlfn.CONCAT(A419," -&gt; ",B419)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; FIlespace</v>
       </c>
       <c r="D419" t="e">
@@ -8404,7 +8449,7 @@
         <v>88</v>
       </c>
       <c r="C420" t="str">
-        <f>_xlfn.CONCAT(A420," -&gt; ",B420)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; HOLD</v>
       </c>
       <c r="D420" t="e">
@@ -8420,7 +8465,7 @@
         <v>41</v>
       </c>
       <c r="C421" t="str">
-        <f>_xlfn.CONCAT(A421," -&gt; ",B421)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; LIBRary</v>
       </c>
       <c r="D421" t="e">
@@ -8439,7 +8484,7 @@
         <v>42</v>
       </c>
       <c r="C422" t="str">
-        <f>_xlfn.CONCAT(A422," -&gt; ",B422)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; LIBVolume</v>
       </c>
       <c r="D422" t="e">
@@ -8455,7 +8500,7 @@
         <v>89</v>
       </c>
       <c r="C423" t="str">
-        <f>_xlfn.CONCAT(A423," -&gt; ",B423)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; MACHine</v>
       </c>
       <c r="D423" t="e">
@@ -8471,7 +8516,7 @@
         <v>66</v>
       </c>
       <c r="C424" t="str">
-        <f>_xlfn.CONCAT(A424," -&gt; ",B424)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; MGmtclass</v>
       </c>
       <c r="D424" t="e">
@@ -8490,7 +8535,7 @@
         <v>47</v>
       </c>
       <c r="C425" t="str">
-        <f>_xlfn.CONCAT(A425," -&gt; ",B425)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; Node</v>
       </c>
       <c r="D425" t="e">
@@ -8509,7 +8554,7 @@
         <v>91</v>
       </c>
       <c r="C426" t="str">
-        <f>_xlfn.CONCAT(A426," -&gt; ",B426)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; NODEGroup</v>
       </c>
       <c r="D426" t="e">
@@ -8525,7 +8570,7 @@
         <v>93</v>
       </c>
       <c r="C427" t="str">
-        <f>_xlfn.CONCAT(A427," -&gt; ",B427)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; OBJECTDomain</v>
       </c>
       <c r="D427" t="e">
@@ -8541,7 +8586,7 @@
         <v>94</v>
       </c>
       <c r="C428" t="str">
-        <f>_xlfn.CONCAT(A428," -&gt; ",B428)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; PATH</v>
       </c>
       <c r="D428" t="e">
@@ -8560,7 +8605,7 @@
         <v>32</v>
       </c>
       <c r="C429" t="str">
-        <f>_xlfn.CONCAT(A429," -&gt; ",B429)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; POlicyset</v>
       </c>
       <c r="D429" t="e">
@@ -8579,7 +8624,7 @@
         <v>67</v>
       </c>
       <c r="C430" t="str">
-        <f>_xlfn.CONCAT(A430," -&gt; ",B430)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; PROFIle</v>
       </c>
       <c r="D430" t="e">
@@ -8595,7 +8640,7 @@
         <v>97</v>
       </c>
       <c r="C431" t="str">
-        <f>_xlfn.CONCAT(A431," -&gt; ",B431)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; RECOVERYMedia</v>
       </c>
       <c r="D431" t="e">
@@ -8611,7 +8656,7 @@
         <v>191</v>
       </c>
       <c r="C432" t="str">
-        <f>_xlfn.CONCAT(A432," -&gt; ",B432)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; REPLRule</v>
       </c>
       <c r="D432" t="e">
@@ -8627,7 +8672,7 @@
         <v>98</v>
       </c>
       <c r="C433" t="str">
-        <f>_xlfn.CONCAT(A433," -&gt; ",B433)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; RETRule</v>
       </c>
       <c r="D433" t="e">
@@ -8643,7 +8688,7 @@
         <v>23</v>
       </c>
       <c r="C434" t="str">
-        <f>_xlfn.CONCAT(A434," -&gt; ",B434)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; RETSet</v>
       </c>
       <c r="D434" t="e">
@@ -8659,7 +8704,7 @@
         <v>68</v>
       </c>
       <c r="C435" t="str">
-        <f>_xlfn.CONCAT(A435," -&gt; ",B435)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SCHedule</v>
       </c>
       <c r="D435" t="e">
@@ -8678,7 +8723,7 @@
         <v>99</v>
       </c>
       <c r="C436" t="str">
-        <f>_xlfn.CONCAT(A436," -&gt; ",B436)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SCRATCHPadentry</v>
       </c>
       <c r="D436" t="e">
@@ -8694,7 +8739,7 @@
         <v>69</v>
       </c>
       <c r="C437" t="str">
-        <f>_xlfn.CONCAT(A437," -&gt; ",B437)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SCRipt</v>
       </c>
       <c r="D437" t="e">
@@ -8713,7 +8758,7 @@
         <v>5</v>
       </c>
       <c r="C438" t="str">
-        <f>_xlfn.CONCAT(A438," -&gt; ",B438)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SERver</v>
       </c>
       <c r="D438" t="e">
@@ -8732,7 +8777,7 @@
         <v>70</v>
       </c>
       <c r="C439" t="str">
-        <f>_xlfn.CONCAT(A439," -&gt; ",B439)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SERVERGroup</v>
       </c>
       <c r="D439" t="e">
@@ -8748,7 +8793,7 @@
         <v>100</v>
       </c>
       <c r="C440" t="str">
-        <f>_xlfn.CONCAT(A440," -&gt; ",B440)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SPACETrigger</v>
       </c>
       <c r="D440" t="e">
@@ -8764,7 +8809,7 @@
         <v>101</v>
       </c>
       <c r="C441" t="str">
-        <f>_xlfn.CONCAT(A441," -&gt; ",B441)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; STAtusthreshold</v>
       </c>
       <c r="D441" t="e">
@@ -8780,7 +8825,7 @@
         <v>12</v>
       </c>
       <c r="C442" t="str">
-        <f>_xlfn.CONCAT(A442," -&gt; ",B442)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; STGpool</v>
       </c>
       <c r="D442" t="e">
@@ -8799,7 +8844,7 @@
         <v>102</v>
       </c>
       <c r="C443" t="str">
-        <f>_xlfn.CONCAT(A443," -&gt; ",B443)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; STGPOOLDIRectory</v>
       </c>
       <c r="D443" t="e">
@@ -8815,7 +8860,7 @@
         <v>103</v>
       </c>
       <c r="C444" t="str">
-        <f>_xlfn.CONCAT(A444," -&gt; ",B444)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; STGRULE</v>
       </c>
       <c r="D444" t="e">
@@ -8831,7 +8876,7 @@
         <v>110</v>
       </c>
       <c r="C445" t="str">
-        <f>_xlfn.CONCAT(A445," -&gt; ",B445)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; SUBRULE</v>
       </c>
       <c r="D445" t="e">
@@ -8847,7 +8892,7 @@
         <v>307</v>
       </c>
       <c r="C446" t="str">
-        <f>_xlfn.CONCAT(A446," -&gt; ",B446)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; VIRTUALFSMapping</v>
       </c>
       <c r="D446" t="e">
@@ -8863,7 +8908,7 @@
         <v>48</v>
       </c>
       <c r="C447" t="str">
-        <f>_xlfn.CONCAT(A447," -&gt; ",B447)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; VOLHistory</v>
       </c>
       <c r="D447" t="e">
@@ -8879,7 +8924,7 @@
         <v>44</v>
       </c>
       <c r="C448" t="str">
-        <f>_xlfn.CONCAT(A448," -&gt; ",B448)</f>
+        <f t="shared" si="6"/>
         <v>UPDate -&gt; Volume</v>
       </c>
       <c r="D448" t="e">
@@ -8890,7 +8935,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>306</v>
       </c>
@@ -8898,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="C449" t="str">
-        <f>_xlfn.CONCAT(A449," -&gt; ",B449)</f>
+        <f t="shared" si="6"/>
         <v>UPDdate -&gt; DEVclass</v>
       </c>
       <c r="D449" t="e">
@@ -8909,7 +8954,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>308</v>
       </c>
@@ -8917,7 +8962,7 @@
         <v>309</v>
       </c>
       <c r="C450" t="str">
-        <f>_xlfn.CONCAT(A450," -&gt; ",B450)</f>
+        <f t="shared" si="6"/>
         <v>VALidate -&gt; ASPera</v>
       </c>
       <c r="D450" t="e">
@@ -8925,7 +8970,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>308</v>
       </c>
@@ -8933,7 +8978,7 @@
         <v>310</v>
       </c>
       <c r="C451" t="str">
-        <f>_xlfn.CONCAT(A451," -&gt; ",B451)</f>
+        <f t="shared" ref="C451:C514" si="7">_xlfn.CONCAT(A451," -&gt; ",B451)</f>
         <v>VALidate -&gt; CLOud</v>
       </c>
       <c r="D451" t="e">
@@ -8941,7 +8986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>308</v>
       </c>
@@ -8949,7 +8994,7 @@
         <v>311</v>
       </c>
       <c r="C452" t="str">
-        <f>_xlfn.CONCAT(A452," -&gt; ",B452)</f>
+        <f t="shared" si="7"/>
         <v>VALidate -&gt; LAnfree</v>
       </c>
       <c r="D452" t="e">
@@ -8957,7 +9002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>308</v>
       </c>
@@ -8965,7 +9010,7 @@
         <v>32</v>
       </c>
       <c r="C453" t="str">
-        <f>_xlfn.CONCAT(A453," -&gt; ",B453)</f>
+        <f t="shared" si="7"/>
         <v>VALidate -&gt; POlicyset</v>
       </c>
       <c r="D453" t="e">
@@ -8975,8 +9020,11 @@
       <c r="E453" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="454" spans="1:5">
+      <c r="F453" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>308</v>
       </c>
@@ -8984,7 +9032,7 @@
         <v>53</v>
       </c>
       <c r="C454" t="str">
-        <f>_xlfn.CONCAT(A454," -&gt; ",B454)</f>
+        <f t="shared" si="7"/>
         <v>VALidate -&gt; REPLication</v>
       </c>
       <c r="D454" t="e">
@@ -8992,7 +9040,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>308</v>
       </c>
@@ -9000,7 +9048,7 @@
         <v>312</v>
       </c>
       <c r="C455" t="str">
-        <f>_xlfn.CONCAT(A455," -&gt; ",B455)</f>
+        <f t="shared" si="7"/>
         <v>VALidate -&gt; REPLPolicy</v>
       </c>
       <c r="D455" t="e">
@@ -9008,7 +9056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -9016,7 +9064,7 @@
         <v>313</v>
       </c>
       <c r="C456" t="str">
-        <f>_xlfn.CONCAT(A456," -&gt; ",B456)</f>
+        <f t="shared" si="7"/>
         <v>VARy -&gt; OFfline</v>
       </c>
       <c r="D456" t="e">
@@ -9026,8 +9074,11 @@
       <c r="E456" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="457" spans="1:5">
+      <c r="F456" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>25</v>
       </c>
@@ -9035,7 +9086,7 @@
         <v>26</v>
       </c>
       <c r="C457" t="str">
-        <f>_xlfn.CONCAT(A457," -&gt; ",B457)</f>
+        <f t="shared" si="7"/>
         <v>VARy -&gt; ONline</v>
       </c>
       <c r="D457" t="e">
@@ -9045,15 +9096,12 @@
       <c r="E457" t="s">
         <v>323</v>
       </c>
+      <c r="F457" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D457">
-      <sortCondition ref="D2:D457"/>
-      <sortCondition ref="A2:A457"/>
-      <sortCondition ref="B2:B457"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/completer-poc/parancsok/parancsok.xlsx
+++ b/completer-poc/parancsok/parancsok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/completer-poc/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893B4C9-E18C-5046-AFDF-C31A653D810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F298B29-C4C3-A74E-A59A-54025D861E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1381,10 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1415,7 +1416,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>ACCept -&gt; Date</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>ACTivate -&gt; POlicyset</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>ASsign -&gt; DEFMGmtclass</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>BAckup -&gt; DB</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>BAckup -&gt; DEVCONFig</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>BAckup -&gt; STGpool</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>BAckup -&gt; VOLHistory</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>CHECKIn -&gt; LIBVolume</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>DECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>DECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>DEFine -&gt; ASSOCiation</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>DEFine -&gt; DEVclass</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>DELete -&gt; STGpool</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>Query -&gt; ACtlog</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>Query -&gt; FIlespace</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>Query -&gt; LOG</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>Query -&gt; Node</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>Query -&gt; OPTion</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>Query -&gt; PATH</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>Query -&gt; PRocess</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>Query -&gt; SEssion</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>Query -&gt; STGpool</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>RECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>RECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>REMove -&gt; Node</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>Set -&gt; ACCounting</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>Set -&gt; ACTlogretention</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>Set -&gt; ALERTACtiveduration</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>Set -&gt; ALERTCLosedduration</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>Set -&gt; ALERTEMail</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>Set -&gt; ALERTEMAILFRomaddr</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" t="s">
         <v>123</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>125</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" t="s">
         <v>125</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>134</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" t="s">
         <v>134</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" t="s">
         <v>134</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" t="s">
         <v>135</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" t="s">
         <v>137</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" t="s">
         <v>139</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" t="s">
         <v>142</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -4686,8 +4687,11 @@
       <c r="E190" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" t="s">
         <v>146</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" t="s">
         <v>146</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" t="s">
         <v>146</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" t="s">
         <v>146</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -4853,7 +4857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -4901,7 +4905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -4997,7 +5001,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -5061,7 +5065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -5077,7 +5081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>170</v>
       </c>
@@ -5157,7 +5161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5237,7 +5241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -5301,7 +5305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -5349,7 +5353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +5561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -5637,7 +5641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -5781,7 +5785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -5861,7 +5865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -5909,7 +5913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -5989,7 +5993,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>170</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>170</v>
       </c>
@@ -6037,7 +6041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6153,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>13</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
         <v>202</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>204</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" t="s">
         <v>206</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
         <v>206</v>
       </c>
@@ -6325,7 +6329,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
         <v>206</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
         <v>207</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
         <v>208</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>209</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" t="s">
         <v>209</v>
       </c>
@@ -6430,7 +6434,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>209</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>209</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>211</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>211</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>211</v>
       </c>
@@ -6525,7 +6529,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>211</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1">
       <c r="A305" t="s">
         <v>211</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1">
       <c r="A306" t="s">
         <v>211</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1">
       <c r="A307" t="s">
         <v>211</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1">
       <c r="A308" t="s">
         <v>211</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" hidden="1">
       <c r="A309" t="s">
         <v>212</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" hidden="1">
       <c r="A310" t="s">
         <v>213</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" hidden="1">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" hidden="1">
       <c r="A312" t="s">
         <v>216</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1">
       <c r="A313" t="s">
         <v>218</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1">
       <c r="A314" t="s">
         <v>218</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1">
       <c r="A315" t="s">
         <v>218</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316" t="s">
         <v>219</v>
       </c>
@@ -6748,7 +6752,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318" t="s">
         <v>220</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -6799,7 +6803,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -6818,7 +6822,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" hidden="1">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" hidden="1">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" hidden="1">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6894,7 +6898,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" hidden="1">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" hidden="1">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -6932,7 +6936,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" hidden="1">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" hidden="1">
       <c r="A328" t="s">
         <v>236</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" hidden="1">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" hidden="1">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" hidden="1">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" hidden="1">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" hidden="1">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" hidden="1">
       <c r="A334" t="s">
         <v>236</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" hidden="1">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" hidden="1">
       <c r="A336" t="s">
         <v>236</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1">
       <c r="A337" t="s">
         <v>236</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
         <v>236</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
         <v>236</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
         <v>14</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -7216,7 +7220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
         <v>14</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
         <v>14</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>14</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" t="s">
         <v>236</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -7440,7 +7444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" t="s">
         <v>236</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -7472,7 +7476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" t="s">
         <v>14</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" t="s">
         <v>14</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" t="s">
         <v>14</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" hidden="1">
       <c r="A366" t="s">
         <v>14</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" t="s">
         <v>14</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -7632,7 +7636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" t="s">
         <v>14</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" t="s">
         <v>236</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" t="s">
         <v>236</v>
       </c>
@@ -7856,7 +7860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" t="s">
         <v>14</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" t="s">
         <v>296</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" t="s">
         <v>300</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
         <v>302</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
         <v>304</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
         <v>305</v>
       </c>
@@ -8176,7 +8180,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
         <v>305</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
         <v>305</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" t="s">
         <v>24</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -8291,7 +8295,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
         <v>24</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
         <v>24</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -8339,7 +8343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
         <v>24</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
         <v>24</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" t="s">
         <v>24</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
         <v>24</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
         <v>24</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
         <v>24</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
         <v>24</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
         <v>24</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
         <v>24</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -8715,7 +8719,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -8769,7 +8773,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
         <v>24</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -8836,7 +8840,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
         <v>24</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
         <v>24</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
         <v>24</v>
       </c>
@@ -8900,7 +8904,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" hidden="1">
       <c r="A450" t="s">
         <v>308</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" hidden="1">
       <c r="A451" t="s">
         <v>308</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" hidden="1">
       <c r="A452" t="s">
         <v>308</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" hidden="1">
       <c r="A454" t="s">
         <v>308</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" hidden="1">
       <c r="A455" t="s">
         <v>308</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" hidden="1">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" hidden="1">
       <c r="A457" t="s">
         <v>25</v>
       </c>
@@ -9101,7 +9105,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}"/>
+  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="f"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/completer-poc/parancsok/parancsok.xlsx
+++ b/completer-poc/parancsok/parancsok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/completer-poc/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F298B29-C4C3-A74E-A59A-54025D861E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3F95E-4E5C-9F46-AEE1-295BFC0CD64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1381,11 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1416,7 +1415,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>ACCept -&gt; Date</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>ACTivate -&gt; POlicyset</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>ASsign -&gt; DEFMGmtclass</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>BAckup -&gt; DB</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>BAckup -&gt; DEVCONFig</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>BAckup -&gt; STGpool</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>BAckup -&gt; VOLHistory</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>CHECKIn -&gt; LIBVolume</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>DECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>DECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>DEFine -&gt; ASSOCiation</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>DEFine -&gt; DEVclass</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>DELete -&gt; STGpool</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>Query -&gt; ACtlog</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>Query -&gt; FIlespace</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>Query -&gt; LOG</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>Query -&gt; Node</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>Query -&gt; OPTion</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1718,7 @@
         <v>Query -&gt; PATH</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>Query -&gt; PRocess</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>Query -&gt; SEssion</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>Query -&gt; STGpool</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>RECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>RECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>REMove -&gt; Node</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>Set -&gt; ACCounting</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>Set -&gt; ACTlogretention</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>Set -&gt; ALERTACtiveduration</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>Set -&gt; ALERTCLosedduration</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>Set -&gt; ALERTEMail</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1911,7 +1910,7 @@
         <v>Set -&gt; ALERTEMAILFRomaddr</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4185,8 +4184,11 @@
         <f>VLOOKUP(C159,Sheet3!C:C,1,)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" hidden="1">
+      <c r="F159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>123</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>125</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>125</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -4381,7 +4383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>134</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>134</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>134</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>135</v>
       </c>
@@ -4525,7 +4527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>137</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>139</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>142</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -4605,7 +4607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -4653,7 +4655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>146</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>146</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>146</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>146</v>
       </c>
@@ -4757,8 +4759,11 @@
       <c r="E194" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1">
+      <c r="F194" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>146</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -4825,7 +4830,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -4873,7 +4878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -4905,7 +4910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -4921,7 +4926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -4969,7 +4974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -5065,7 +5070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -5113,7 +5118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5129,7 +5134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>170</v>
       </c>
@@ -5161,7 +5166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -5193,7 +5198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -5209,7 +5214,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -5257,7 +5262,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -5289,7 +5294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -5305,7 +5310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -5321,7 +5326,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -5337,7 +5342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -5353,7 +5358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -5385,7 +5390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -5449,7 +5454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -5481,7 +5486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -5513,7 +5518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -5577,7 +5582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -5593,7 +5598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -5625,7 +5630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -5689,7 +5694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -5705,7 +5710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -5753,7 +5758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -5785,7 +5790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -5801,7 +5806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -5833,7 +5838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -5849,7 +5854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -5865,7 +5870,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -5881,7 +5886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +5982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -5993,7 +5998,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -6009,7 +6014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>170</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>170</v>
       </c>
@@ -6041,7 +6046,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -6073,7 +6078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -6089,7 +6094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -6121,7 +6126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -6137,7 +6142,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -6153,7 +6158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>13</v>
       </c>
@@ -6249,7 +6254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -6265,7 +6270,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>202</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>204</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>206</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>206</v>
       </c>
@@ -6329,7 +6334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>206</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>207</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>208</v>
       </c>
@@ -6377,7 +6382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>209</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -6415,7 +6420,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>209</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>209</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>209</v>
       </c>
@@ -6472,7 +6477,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>211</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>211</v>
       </c>
@@ -6510,7 +6515,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>211</v>
       </c>
@@ -6529,7 +6534,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>211</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>211</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>211</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>211</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>211</v>
       </c>
@@ -6624,7 +6629,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>212</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>213</v>
       </c>
@@ -6656,7 +6661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -6672,7 +6677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>216</v>
       </c>
@@ -6688,7 +6693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>218</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>218</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>218</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>219</v>
       </c>
@@ -6752,7 +6757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -6768,7 +6773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>220</v>
       </c>
@@ -6784,7 +6789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -6822,7 +6827,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -6841,7 +6846,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -6879,7 +6884,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6898,7 +6903,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -6955,7 +6960,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>236</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -7028,7 +7033,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -7044,7 +7049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -7060,7 +7065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>236</v>
       </c>
@@ -7076,7 +7081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -7092,7 +7097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>236</v>
       </c>
@@ -7108,7 +7113,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>236</v>
       </c>
@@ -7124,7 +7129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>236</v>
       </c>
@@ -7140,7 +7145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>236</v>
       </c>
@@ -7156,7 +7161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>14</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -7188,7 +7193,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -7204,7 +7209,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -7220,7 +7225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>14</v>
       </c>
@@ -7236,7 +7241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>14</v>
       </c>
@@ -7252,7 +7257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -7268,7 +7273,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -7284,7 +7289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -7300,7 +7305,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -7316,7 +7321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -7332,7 +7337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>14</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>14</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -7396,7 +7401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>236</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -7444,7 +7449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>236</v>
       </c>
@@ -7460,7 +7465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>14</v>
       </c>
@@ -7492,7 +7497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -7508,7 +7513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7529,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>14</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -7556,7 +7561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>14</v>
       </c>
@@ -7572,7 +7577,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>14</v>
       </c>
@@ -7588,7 +7593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>14</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -7636,7 +7641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>14</v>
       </c>
@@ -7668,7 +7673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -7716,7 +7721,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>236</v>
       </c>
@@ -7732,7 +7737,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -7764,7 +7769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -7844,7 +7849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>236</v>
       </c>
@@ -7860,7 +7865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>14</v>
       </c>
@@ -7876,7 +7881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -7892,7 +7897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -7908,7 +7913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -7924,7 +7929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -7940,7 +7945,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -7956,7 +7961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -7972,7 +7977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +7993,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -8004,7 +8009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -8020,7 +8025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -8052,7 +8057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -8068,7 +8073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>296</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>300</v>
       </c>
@@ -8132,7 +8137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>302</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>304</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>305</v>
       </c>
@@ -8180,7 +8185,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>305</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>305</v>
       </c>
@@ -8212,7 +8217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>24</v>
       </c>
@@ -8228,7 +8233,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -8244,7 +8249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -8260,7 +8265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>24</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>24</v>
       </c>
@@ -8327,7 +8332,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>24</v>
       </c>
@@ -8359,7 +8364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8399,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>24</v>
       </c>
@@ -8429,7 +8434,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>24</v>
       </c>
@@ -8480,7 +8485,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>24</v>
       </c>
@@ -8496,7 +8501,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>24</v>
       </c>
@@ -8620,7 +8625,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -8636,7 +8641,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>24</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>24</v>
       </c>
@@ -8668,7 +8673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1">
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>24</v>
       </c>
@@ -8684,7 +8689,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1">
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -8719,7 +8724,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1">
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1">
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>24</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1">
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -8805,7 +8810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1">
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -8840,7 +8845,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1">
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>24</v>
       </c>
@@ -8856,7 +8861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1">
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>24</v>
       </c>
@@ -8872,7 +8877,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1">
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -8888,7 +8893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>24</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1">
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -8958,7 +8963,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>308</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>308</v>
       </c>
@@ -8982,7 +8987,7 @@
         <v>310</v>
       </c>
       <c r="C451" t="str">
-        <f t="shared" ref="C451:C514" si="7">_xlfn.CONCAT(A451," -&gt; ",B451)</f>
+        <f t="shared" ref="C451:C457" si="7">_xlfn.CONCAT(A451," -&gt; ",B451)</f>
         <v>VALidate -&gt; CLOud</v>
       </c>
       <c r="D451" t="e">
@@ -8990,7 +8995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>308</v>
       </c>
@@ -9028,7 +9033,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>308</v>
       </c>
@@ -9044,7 +9049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>308</v>
       </c>
@@ -9060,7 +9065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -9082,7 +9087,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>25</v>
       </c>
@@ -9105,13 +9110,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="f"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
